--- a/Document/変身モノプロトタイプ仕様書01.xlsx
+++ b/Document/変身モノプロトタイプ仕様書01.xlsx
@@ -1,24 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tk625\OneDrive\Desktop\git_yaruki\origin\Document\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{546E3EF7-7D9D-437A-BAFD-CCE016A74D5A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="7920" windowHeight="2355" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="10973" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="大概要" sheetId="1" r:id="rId1"/>
     <sheet name="戦闘・イベント仕様" sheetId="3" r:id="rId2"/>
     <sheet name="アクション仕様" sheetId="6" r:id="rId3"/>
-    <sheet name="必要項目リスト" sheetId="2" r:id="rId4"/>
-    <sheet name="共通" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
+    <sheet name="必要項目リスト" sheetId="2" r:id="rId5"/>
+    <sheet name="共通" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="206">
   <si>
     <t>■資料概要</t>
     <rPh sb="1" eb="3">
@@ -2210,11 +2217,418 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>アクションリストを作成すること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクターへのダメージ表現はワイプで顔のグラフィックが表示される形で行う。</t>
+    <rPh sb="12" eb="14">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→ぷよぷよでピンチになると表情がヤバくなっていくのと同等の表現。</t>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジョウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ドウトウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■アクションリスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ループ有無</t>
+    <rPh sb="3" eb="5">
+      <t>ウム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容説明</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業状態</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔法少女</t>
+    <rPh sb="0" eb="2">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル名の命名規則
+キャラ名_アクション名（英字）_通し番号_ループの場合のアクションの状態（開始、ループ中、終了）
+例：魔法少女の攻撃ループモーションの開始時の場合
+"Mshoujo_atk_01_st"
+といった具合。（規則が使いにくかったら量産前に修正）</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>メイメイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キソク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>エイジ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ショウジョ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>グアイ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>キソク</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>リョウサン</t>
+    </rPh>
+    <rPh sb="126" eb="127">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スライム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用アクション</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>待機</t>
+    <rPh sb="0" eb="2">
+      <t>タイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>αで必須か</t>
+    <rPh sb="2" eb="4">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必須</t>
+    <rPh sb="0" eb="2">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必須ではない</t>
+    <rPh sb="0" eb="2">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>待機_立ち</t>
+    <rPh sb="0" eb="2">
+      <t>タイキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>待機_座り</t>
+    <rPh sb="0" eb="2">
+      <t>タイキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>スワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃_接近</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セッキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃_遠距離</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>エンキョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃_必殺技</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ヒッサツワザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>歩き_前</t>
+    <rPh sb="0" eb="1">
+      <t>アル</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>歩き_後ろ</t>
+    <rPh sb="0" eb="1">
+      <t>アル</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプ_上昇</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプ_落下</t>
+    <rPh sb="5" eb="7">
+      <t>ラッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダメージくらい_小</t>
+    <rPh sb="8" eb="9">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダメージくらい_大</t>
+    <rPh sb="8" eb="9">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダウン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>起き上がり</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>汎用ポーズ</t>
+    <rPh sb="0" eb="2">
+      <t>ハンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦闘開始、勝ちポーズなど</t>
+    <rPh sb="0" eb="2">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無気力_待機_立ち</t>
+    <rPh sb="0" eb="3">
+      <t>ムキリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タイキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>歩き_前後共通</t>
+    <rPh sb="0" eb="1">
+      <t>アル</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゼンゴ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大ダウン_無気力開始</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ムキリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2272,7 +2686,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2333,6 +2747,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -2363,7 +2795,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2424,6 +2856,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2441,6 +2888,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2463,7 +2913,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2530,7 +2986,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2613,7 +3075,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2701,7 +3169,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2773,7 +3247,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2845,7 +3325,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2917,7 +3403,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2989,7 +3481,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線矢印コネクタ 10"/>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="2"/>
           <a:endCxn id="3" idx="0"/>
@@ -3039,7 +3537,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直線矢印コネクタ 12"/>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="2"/>
           <a:endCxn id="21" idx="0"/>
@@ -3089,7 +3593,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="直線矢印コネクタ 14"/>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="4" idx="2"/>
           <a:endCxn id="6" idx="0"/>
@@ -3139,7 +3649,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="カギ線コネクタ 16"/>
+        <xdr:cNvPr id="17" name="カギ線コネクタ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="8" idx="0"/>
         </xdr:cNvCxnSpPr>
@@ -3188,7 +3704,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="直線矢印コネクタ 18"/>
+        <xdr:cNvPr id="19" name="直線矢印コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="6" idx="2"/>
           <a:endCxn id="9" idx="0"/>
@@ -3238,7 +3760,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="直線矢印コネクタ 19"/>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="9" idx="2"/>
           <a:endCxn id="5" idx="0"/>
@@ -3288,7 +3816,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="カギ線コネクタ 23"/>
+        <xdr:cNvPr id="24" name="カギ線コネクタ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="8" idx="2"/>
         </xdr:cNvCxnSpPr>
@@ -3337,7 +3871,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="カギ線コネクタ 25"/>
+        <xdr:cNvPr id="26" name="カギ線コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="5" idx="1"/>
           <a:endCxn id="2" idx="1"/>
@@ -3389,7 +3929,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="正方形/長方形 30"/>
+        <xdr:cNvPr id="31" name="正方形/長方形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3456,7 +4002,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3528,7 +4080,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="直線矢印コネクタ 21"/>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="21" idx="2"/>
           <a:endCxn id="4" idx="0"/>
@@ -3578,7 +4136,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="図 26" descr="「豚　交尾」の画像検索結果"/>
+        <xdr:cNvPr id="27" name="図 26" descr="「豚　交尾」の画像検索結果">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3633,7 +4197,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="図 22" descr="「タイトル画面」の画像検索結果"/>
+        <xdr:cNvPr id="23" name="図 22" descr="「タイトル画面」の画像検索結果">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3688,7 +4258,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="図 27" descr="「キャラクターセレクト」の画像検索結果"/>
+        <xdr:cNvPr id="28" name="図 27" descr="「キャラクターセレクト」の画像検索結果">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3748,7 +4324,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="図 44" descr="「背景 イラスト」の画像検索結果"/>
+        <xdr:cNvPr id="45" name="図 44" descr="「背景 イラスト」の画像検索結果">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3790,20 +4372,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>52388</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>145256</xdr:rowOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>30956</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1" descr="「mugen ミノタウロス」の画像検索結果"/>
+        <xdr:cNvPr id="2" name="図 1" descr="「mugen ミノタウロス」の画像検索結果">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3823,8 +4411,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6238875" y="2466975"/>
-          <a:ext cx="2162175" cy="1621631"/>
+          <a:off x="6367463" y="3838575"/>
+          <a:ext cx="2005012" cy="1535906"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3858,7 +4446,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2" descr="「工事中」の画像検索結果"/>
+        <xdr:cNvPr id="3" name="図 2" descr="「工事中」の画像検索結果">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3913,20 +4507,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="53" name="グループ化 52"/>
+        <xdr:cNvPr id="53" name="グループ化 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="209549" y="22117050"/>
-          <a:ext cx="4829177" cy="2190751"/>
+          <a:off x="195262" y="20888325"/>
+          <a:ext cx="4486277" cy="2076451"/>
           <a:chOff x="209549" y="21945600"/>
           <a:chExt cx="4829177" cy="2190751"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="4" name="図 3" descr="「バーベキュー」の画像検索結果"/>
+          <xdr:cNvPr id="4" name="図 3" descr="「バーベキュー」の画像検索結果">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -3964,7 +4570,13 @@
       </xdr:pic>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="5" name="図 4" descr="「バーベキュー」の画像検索結果"/>
+          <xdr:cNvPr id="5" name="図 4" descr="「バーベキュー」の画像検索結果">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -4002,7 +4614,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="角丸四角形 5"/>
+          <xdr:cNvPr id="6" name="角丸四角形 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4092,7 +4710,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4164,7 +4788,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4236,7 +4866,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4308,7 +4944,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直線矢印コネクタ 11"/>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="9" idx="0"/>
         </xdr:cNvCxnSpPr>
@@ -4357,7 +4999,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="カギ線コネクタ 12"/>
+        <xdr:cNvPr id="13" name="カギ線コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4404,7 +5052,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直線矢印コネクタ 13"/>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="9" idx="2"/>
           <a:endCxn id="11" idx="0"/>
@@ -4454,7 +5108,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="直線矢印コネクタ 14"/>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="11" idx="2"/>
           <a:endCxn id="104" idx="0"/>
@@ -4504,7 +5164,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="カギ線コネクタ 15"/>
+        <xdr:cNvPr id="16" name="カギ線コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4553,7 +5219,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4625,7 +5297,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="直線矢印コネクタ 17"/>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="17" idx="2"/>
           <a:endCxn id="59" idx="0"/>
@@ -4675,7 +5353,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="図 21" descr="「背景 イラスト」の画像検索結果"/>
+        <xdr:cNvPr id="22" name="図 21" descr="「背景 イラスト」の画像検索結果">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4730,20 +5414,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="25" name="グループ化 24"/>
+        <xdr:cNvPr id="25" name="グループ化 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4267200" y="9420225"/>
-          <a:ext cx="381000" cy="1047750"/>
+          <a:off x="3967163" y="8905875"/>
+          <a:ext cx="352425" cy="981075"/>
           <a:chOff x="3448050" y="7877175"/>
           <a:chExt cx="381000" cy="1047750"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="23" name="円/楕円 22"/>
+          <xdr:cNvPr id="23" name="円/楕円 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4785,7 +5481,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="24" name="二等辺三角形 23"/>
+          <xdr:cNvPr id="24" name="二等辺三角形 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4843,7 +5545,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="スマイル 25"/>
+        <xdr:cNvPr id="26" name="スマイル 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4900,7 +5608,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="四角形吹き出し 26"/>
+        <xdr:cNvPr id="27" name="四角形吹き出し 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4970,7 +5684,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="四角形吹き出し 27"/>
+        <xdr:cNvPr id="28" name="四角形吹き出し 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5045,7 +5765,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="スマイル 28"/>
+        <xdr:cNvPr id="29" name="スマイル 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5102,20 +5828,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="30" name="グループ化 29"/>
+        <xdr:cNvPr id="30" name="グループ化 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2295525" y="15049500"/>
-          <a:ext cx="381000" cy="1047750"/>
+          <a:off x="2138363" y="14220825"/>
+          <a:ext cx="352425" cy="990600"/>
           <a:chOff x="3448050" y="7877175"/>
           <a:chExt cx="381000" cy="1047750"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="31" name="円/楕円 30"/>
+          <xdr:cNvPr id="31" name="円/楕円 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5157,7 +5895,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="32" name="二等辺三角形 31"/>
+          <xdr:cNvPr id="32" name="二等辺三角形 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5215,7 +5959,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="稲妻 32"/>
+        <xdr:cNvPr id="33" name="稲妻 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5272,7 +6022,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="爆発 2 34"/>
+        <xdr:cNvPr id="35" name="爆発 2 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5329,7 +6085,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="爆発 2 36"/>
+        <xdr:cNvPr id="37" name="爆発 2 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5386,7 +6148,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="爆発 2 37"/>
+        <xdr:cNvPr id="38" name="爆発 2 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5443,7 +6211,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="爆発 2 38"/>
+        <xdr:cNvPr id="39" name="爆発 2 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5500,7 +6274,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="爆発 2 39"/>
+        <xdr:cNvPr id="40" name="爆発 2 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5557,7 +6337,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="爆発 2 40"/>
+        <xdr:cNvPr id="41" name="爆発 2 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5614,7 +6400,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="爆発 2 43"/>
+        <xdr:cNvPr id="44" name="爆発 2 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5671,20 +6463,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="46" name="グループ化 45"/>
+        <xdr:cNvPr id="46" name="グループ化 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="4677906">
-          <a:off x="8915399" y="23441025"/>
-          <a:ext cx="381000" cy="1047750"/>
+          <a:off x="8281987" y="22159912"/>
+          <a:ext cx="361950" cy="962025"/>
           <a:chOff x="3448050" y="7877175"/>
           <a:chExt cx="381000" cy="1047750"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="47" name="円/楕円 46"/>
+          <xdr:cNvPr id="47" name="円/楕円 46">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5726,7 +6530,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="48" name="二等辺三角形 47"/>
+          <xdr:cNvPr id="48" name="二等辺三角形 47">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000030000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5784,7 +6594,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="スマイル 48"/>
+        <xdr:cNvPr id="49" name="スマイル 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5841,7 +6657,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="図 49" descr="「ガードポジション」の画像検索結果"/>
+        <xdr:cNvPr id="50" name="図 49" descr="「ガードポジション」の画像検索結果">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5894,7 +6716,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="角丸四角形 50"/>
+        <xdr:cNvPr id="51" name="角丸四角形 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5967,7 +6795,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="四角形吹き出し 53"/>
+        <xdr:cNvPr id="54" name="四角形吹き出し 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6045,7 +6879,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="四角形吹き出し 54"/>
+        <xdr:cNvPr id="55" name="四角形吹き出し 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6123,7 +6963,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="四角形吹き出し 55"/>
+        <xdr:cNvPr id="56" name="四角形吹き出し 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6193,7 +7039,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="正方形/長方形 58"/>
+        <xdr:cNvPr id="59" name="正方形/長方形 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6265,7 +7117,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="正方形/長方形 61"/>
+        <xdr:cNvPr id="62" name="正方形/長方形 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6337,7 +7195,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="67" name="直線矢印コネクタ 66"/>
+        <xdr:cNvPr id="67" name="直線矢印コネクタ 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="59" idx="2"/>
           <a:endCxn id="62" idx="0"/>
@@ -6387,7 +7251,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="70" name="直線矢印コネクタ 69"/>
+        <xdr:cNvPr id="70" name="直線矢印コネクタ 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000046000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="62" idx="2"/>
         </xdr:cNvCxnSpPr>
@@ -6436,20 +7306,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="90" name="グループ化 89"/>
+        <xdr:cNvPr id="90" name="グループ化 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1190625" y="29556075"/>
-          <a:ext cx="2790825" cy="1569839"/>
+          <a:off x="1114426" y="27917775"/>
+          <a:ext cx="2595562" cy="1484114"/>
           <a:chOff x="6000750" y="29660850"/>
           <a:chExt cx="4105275" cy="2309217"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="85" name="図 84" descr="「背景 イラスト」の画像検索結果"/>
+          <xdr:cNvPr id="85" name="図 84" descr="「背景 イラスト」の画像検索結果">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000055000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -6489,7 +7371,13 @@
       </xdr:pic>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="86" name="グループ化 85"/>
+          <xdr:cNvPr id="86" name="グループ化 85">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000056000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -6502,7 +7390,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="87" name="円/楕円 86"/>
+            <xdr:cNvPr id="87" name="円/楕円 86">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000057000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6544,7 +7438,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="88" name="二等辺三角形 87"/>
+            <xdr:cNvPr id="88" name="二等辺三角形 87">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000058000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6587,7 +7487,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="89" name="スマイル 88"/>
+          <xdr:cNvPr id="89" name="スマイル 88">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000059000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6645,7 +7551,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="91" name="正方形/長方形 90"/>
+        <xdr:cNvPr id="91" name="正方形/長方形 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6715,7 +7627,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6787,7 +7705,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="94" name="正方形/長方形 93"/>
+        <xdr:cNvPr id="94" name="正方形/長方形 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6899,7 +7823,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="97" name="正方形/長方形 96"/>
+        <xdr:cNvPr id="97" name="正方形/長方形 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000061000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6971,7 +7901,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="98" name="正方形/長方形 97"/>
+        <xdr:cNvPr id="98" name="正方形/長方形 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000062000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7099,7 +8035,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="104" name="正方形/長方形 103"/>
+        <xdr:cNvPr id="104" name="正方形/長方形 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000068000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7171,7 +8113,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="118" name="正方形/長方形 117"/>
+        <xdr:cNvPr id="118" name="正方形/長方形 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000076000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7248,7 +8196,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1" descr="「mugen ミノタウロス」の画像検索結果"/>
+        <xdr:cNvPr id="2" name="図 1" descr="「mugen ミノタウロス」の画像検索結果">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7303,7 +8257,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2" descr="「工事中」の画像検索結果"/>
+        <xdr:cNvPr id="3" name="図 2" descr="「工事中」の画像検索結果">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7358,20 +8318,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="4" name="グループ化 3"/>
+        <xdr:cNvPr id="4" name="グループ化 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="209549" y="10972800"/>
-          <a:ext cx="4829177" cy="2190751"/>
+          <a:off x="195262" y="10363200"/>
+          <a:ext cx="4486277" cy="2076451"/>
           <a:chOff x="1619249" y="7896225"/>
           <a:chExt cx="4829177" cy="2190751"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="5" name="図 4" descr="「バーベキュー」の画像検索結果"/>
+          <xdr:cNvPr id="5" name="図 4" descr="「バーベキュー」の画像検索結果">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -7409,7 +8381,13 @@
       </xdr:pic>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="6" name="図 5" descr="「バーベキュー」の画像検索結果"/>
+          <xdr:cNvPr id="6" name="図 5" descr="「バーベキュー」の画像検索結果">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -7447,7 +8425,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="角丸四角形 6"/>
+          <xdr:cNvPr id="7" name="角丸四角形 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7526,7 +8510,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7568,7 +8552,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7601,9 +8585,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7636,6 +8637,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7811,16 +8829,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:U123"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A110" zoomScale="195" workbookViewId="0">
       <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -7838,17 +8856,17 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -7866,17 +8884,17 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -7894,12 +8912,12 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>129</v>
       </c>
@@ -7917,12 +8935,12 @@
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>6</v>
       </c>
@@ -7940,17 +8958,17 @@
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>9</v>
       </c>
@@ -7968,77 +8986,77 @@
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>26</v>
       </c>
@@ -8056,17 +9074,17 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B95" s="4" t="s">
         <v>27</v>
       </c>
@@ -8079,32 +9097,32 @@
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="97" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="98" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="99" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="101" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:21" x14ac:dyDescent="0.25">
       <c r="U101" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="102" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B102" s="4" t="s">
         <v>40</v>
       </c>
@@ -8117,17 +9135,17 @@
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
     </row>
-    <row r="103" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="104" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="107" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B107" s="4" t="s">
         <v>36</v>
       </c>
@@ -8140,32 +9158,32 @@
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
     </row>
-    <row r="108" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="109" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="110" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="112" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B116" s="4" t="s">
         <v>43</v>
       </c>
@@ -8178,22 +9196,22 @@
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
     </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B122" s="4" t="s">
         <v>47</v>
       </c>
@@ -8206,7 +9224,7 @@
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
     </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>48</v>
       </c>
@@ -8220,16 +9238,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AF226"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:AS226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V212" sqref="V212"/>
+    <sheetView topLeftCell="A101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z89" sqref="Z89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>123</v>
       </c>
@@ -8247,17 +9265,17 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>151</v>
       </c>
@@ -8275,160 +9293,165 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="AF22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AS43" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>143</v>
       </c>
@@ -8439,12 +9462,12 @@
         <v>140</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="85" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>144</v>
       </c>
@@ -8455,12 +9478,22 @@
         <v>142</v>
       </c>
     </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="87" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="Z87" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="Z88" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.25">
       <c r="F96" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>60</v>
       </c>
@@ -8478,22 +9511,22 @@
       <c r="M99" s="3"/>
       <c r="N99" s="3"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B105" s="4" t="s">
         <v>102</v>
       </c>
@@ -8506,57 +9539,57 @@
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B121" s="4" t="s">
         <v>113</v>
       </c>
@@ -8569,67 +9602,67 @@
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
     </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="129" spans="2:29" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:29" x14ac:dyDescent="0.25">
       <c r="AC129" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="143" spans="2:29" x14ac:dyDescent="0.15">
+    <row r="143" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B150" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>128</v>
       </c>
@@ -8647,7 +9680,7 @@
       <c r="M154" s="3"/>
       <c r="N154" s="3"/>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>121</v>
       </c>
@@ -8674,16 +9707,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:AF112"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96:XFD96"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>123</v>
       </c>
@@ -8701,17 +9734,17 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>131</v>
       </c>
@@ -8729,110 +9762,110 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="AF19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>60</v>
       </c>
@@ -8850,22 +9883,22 @@
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>102</v>
       </c>
@@ -8878,32 +9911,32 @@
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B61" s="4" t="s">
         <v>113</v>
       </c>
@@ -8916,47 +9949,47 @@
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>128</v>
       </c>
@@ -8974,7 +10007,7 @@
       <c r="M89" s="3"/>
       <c r="N89" s="3"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>121</v>
       </c>
@@ -9001,25 +10034,634 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAA9CDC-FB3F-4F48-85A9-86ADE8E141E9}">
+  <dimension ref="A2:O55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.19921875" customWidth="1"/>
+    <col min="3" max="3" width="50.796875" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" customWidth="1"/>
+    <col min="5" max="5" width="24.19921875" customWidth="1"/>
+    <col min="6" max="6" width="15.06640625" customWidth="1"/>
+    <col min="7" max="7" width="10.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="4" spans="1:15" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="G40" s="23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{752DB307-FF5B-4D1F-B9BC-37A636BB93AA}">
+          <x14:formula1>
+            <xm:f>共通!E$1:E$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>F41:F55 F6:F35</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5A79D347-A4CF-4C85-B1D3-6FAE9FEFE932}">
+          <x14:formula1>
+            <xm:f>共通!$D$1:$D$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>D41:D55 D6:D35</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:L103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.125" customWidth="1"/>
+    <col min="1" max="1" width="3.1328125" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="3" width="12.25" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
-    <col min="5" max="5" width="30.625" customWidth="1"/>
-    <col min="9" max="11" width="4.625" customWidth="1"/>
-    <col min="12" max="12" width="30.25" customWidth="1"/>
+    <col min="3" max="3" width="12.265625" customWidth="1"/>
+    <col min="4" max="4" width="20.59765625" customWidth="1"/>
+    <col min="5" max="5" width="30.59765625" customWidth="1"/>
+    <col min="9" max="11" width="4.59765625" customWidth="1"/>
+    <col min="12" max="12" width="30.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>61</v>
       </c>
@@ -9028,22 +10670,22 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="11" t="s">
         <v>64</v>
@@ -9076,7 +10718,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="8">
         <f>ROW()-8</f>
         <v>1</v>
@@ -9103,7 +10745,7 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="8">
         <v>2</v>
       </c>
@@ -9133,7 +10775,7 @@
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="8">
         <f>ROW()-8</f>
         <v>3</v>
@@ -9164,7 +10806,7 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="8">
         <f t="shared" ref="B12:B75" si="0">ROW()-8</f>
         <v>4</v>
@@ -9195,7 +10837,7 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="13" spans="1:12" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B13" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -9220,7 +10862,7 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
     </row>
-    <row r="14" spans="1:12" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B14" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -9245,7 +10887,7 @@
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -9270,7 +10912,7 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -9295,7 +10937,7 @@
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -9318,7 +10960,7 @@
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -9341,7 +10983,7 @@
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="8">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -9360,7 +11002,7 @@
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="8">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -9379,7 +11021,7 @@
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="8">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -9398,7 +11040,7 @@
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="8">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -9417,7 +11059,7 @@
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="8">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -9436,7 +11078,7 @@
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="8">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -9455,7 +11097,7 @@
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="8">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -9474,7 +11116,7 @@
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="8">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -9493,7 +11135,7 @@
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="8">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -9512,7 +11154,7 @@
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="8">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -9531,7 +11173,7 @@
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="8">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -9550,7 +11192,7 @@
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="8">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -9569,7 +11211,7 @@
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="8">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -9588,7 +11230,7 @@
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="8">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -9607,7 +11249,7 @@
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" s="8">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -9626,7 +11268,7 @@
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="8">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -9645,7 +11287,7 @@
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="8">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -9664,7 +11306,7 @@
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" s="8">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -9683,7 +11325,7 @@
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="8">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -9702,7 +11344,7 @@
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" s="8">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -9721,7 +11363,7 @@
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" s="8">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -9740,7 +11382,7 @@
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" s="8">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -9759,7 +11401,7 @@
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" s="8">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -9778,7 +11420,7 @@
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" s="8">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -9797,7 +11439,7 @@
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" s="8">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -9816,7 +11458,7 @@
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44" s="8">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -9835,7 +11477,7 @@
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45" s="8">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -9854,7 +11496,7 @@
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" s="8">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -9873,7 +11515,7 @@
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" s="8">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -9892,7 +11534,7 @@
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" s="8">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -9911,7 +11553,7 @@
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" s="8">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -9930,7 +11572,7 @@
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" s="8">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -9949,7 +11591,7 @@
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" s="8">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -9968,7 +11610,7 @@
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" s="8">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -9987,7 +11629,7 @@
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B53" s="8">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -10006,7 +11648,7 @@
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54" s="8">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -10025,7 +11667,7 @@
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" s="8">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -10044,7 +11686,7 @@
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B56" s="8">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -10063,7 +11705,7 @@
       <c r="K56" s="7"/>
       <c r="L56" s="7"/>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B57" s="8">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -10082,7 +11724,7 @@
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B58" s="8">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -10101,7 +11743,7 @@
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59" s="8">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -10120,7 +11762,7 @@
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B60" s="8">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -10139,7 +11781,7 @@
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B61" s="8">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -10158,7 +11800,7 @@
       <c r="K61" s="7"/>
       <c r="L61" s="7"/>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B62" s="8">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -10177,7 +11819,7 @@
       <c r="K62" s="7"/>
       <c r="L62" s="7"/>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B63" s="8">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -10196,7 +11838,7 @@
       <c r="K63" s="7"/>
       <c r="L63" s="7"/>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B64" s="8">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -10215,7 +11857,7 @@
       <c r="K64" s="7"/>
       <c r="L64" s="7"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B65" s="8">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -10234,7 +11876,7 @@
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B66" s="8">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -10253,7 +11895,7 @@
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B67" s="8">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -10272,7 +11914,7 @@
       <c r="K67" s="7"/>
       <c r="L67" s="7"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B68" s="8">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -10291,7 +11933,7 @@
       <c r="K68" s="7"/>
       <c r="L68" s="7"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B69" s="8">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -10310,7 +11952,7 @@
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B70" s="8">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -10329,7 +11971,7 @@
       <c r="K70" s="7"/>
       <c r="L70" s="7"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B71" s="8">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -10348,7 +11990,7 @@
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B72" s="8">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -10367,7 +12009,7 @@
       <c r="K72" s="7"/>
       <c r="L72" s="7"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B73" s="8">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -10386,7 +12028,7 @@
       <c r="K73" s="7"/>
       <c r="L73" s="7"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B74" s="8">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -10405,7 +12047,7 @@
       <c r="K74" s="7"/>
       <c r="L74" s="7"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B75" s="8">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -10424,7 +12066,7 @@
       <c r="K75" s="7"/>
       <c r="L75" s="7"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B76" s="8">
         <f t="shared" ref="B76:B102" si="2">ROW()-8</f>
         <v>68</v>
@@ -10443,7 +12085,7 @@
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B77" s="8">
         <f t="shared" si="2"/>
         <v>69</v>
@@ -10462,7 +12104,7 @@
       <c r="K77" s="7"/>
       <c r="L77" s="7"/>
     </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B78" s="8">
         <f t="shared" si="2"/>
         <v>70</v>
@@ -10481,7 +12123,7 @@
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B79" s="8">
         <f t="shared" si="2"/>
         <v>71</v>
@@ -10500,7 +12142,7 @@
       <c r="K79" s="7"/>
       <c r="L79" s="7"/>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B80" s="8">
         <f t="shared" si="2"/>
         <v>72</v>
@@ -10519,7 +12161,7 @@
       <c r="K80" s="7"/>
       <c r="L80" s="7"/>
     </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B81" s="8">
         <f t="shared" si="2"/>
         <v>73</v>
@@ -10538,7 +12180,7 @@
       <c r="K81" s="7"/>
       <c r="L81" s="7"/>
     </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B82" s="8">
         <f t="shared" si="2"/>
         <v>74</v>
@@ -10557,7 +12199,7 @@
       <c r="K82" s="7"/>
       <c r="L82" s="7"/>
     </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B83" s="8">
         <f t="shared" si="2"/>
         <v>75</v>
@@ -10576,7 +12218,7 @@
       <c r="K83" s="7"/>
       <c r="L83" s="7"/>
     </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B84" s="8">
         <f t="shared" si="2"/>
         <v>76</v>
@@ -10595,7 +12237,7 @@
       <c r="K84" s="7"/>
       <c r="L84" s="7"/>
     </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B85" s="8">
         <f t="shared" si="2"/>
         <v>77</v>
@@ -10614,7 +12256,7 @@
       <c r="K85" s="7"/>
       <c r="L85" s="7"/>
     </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B86" s="8">
         <f t="shared" si="2"/>
         <v>78</v>
@@ -10633,7 +12275,7 @@
       <c r="K86" s="7"/>
       <c r="L86" s="7"/>
     </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B87" s="8">
         <f t="shared" si="2"/>
         <v>79</v>
@@ -10652,7 +12294,7 @@
       <c r="K87" s="7"/>
       <c r="L87" s="7"/>
     </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B88" s="8">
         <f t="shared" si="2"/>
         <v>80</v>
@@ -10671,7 +12313,7 @@
       <c r="K88" s="7"/>
       <c r="L88" s="7"/>
     </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B89" s="8">
         <f t="shared" si="2"/>
         <v>81</v>
@@ -10690,7 +12332,7 @@
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
     </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B90" s="8">
         <f t="shared" si="2"/>
         <v>82</v>
@@ -10709,7 +12351,7 @@
       <c r="K90" s="7"/>
       <c r="L90" s="7"/>
     </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B91" s="8">
         <f t="shared" si="2"/>
         <v>83</v>
@@ -10728,7 +12370,7 @@
       <c r="K91" s="7"/>
       <c r="L91" s="7"/>
     </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B92" s="8">
         <f t="shared" si="2"/>
         <v>84</v>
@@ -10747,7 +12389,7 @@
       <c r="K92" s="7"/>
       <c r="L92" s="7"/>
     </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B93" s="8">
         <f t="shared" si="2"/>
         <v>85</v>
@@ -10766,7 +12408,7 @@
       <c r="K93" s="7"/>
       <c r="L93" s="7"/>
     </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B94" s="8">
         <f t="shared" si="2"/>
         <v>86</v>
@@ -10785,7 +12427,7 @@
       <c r="K94" s="7"/>
       <c r="L94" s="7"/>
     </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B95" s="8">
         <f t="shared" si="2"/>
         <v>87</v>
@@ -10804,7 +12446,7 @@
       <c r="K95" s="7"/>
       <c r="L95" s="7"/>
     </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B96" s="8">
         <f t="shared" si="2"/>
         <v>88</v>
@@ -10823,7 +12465,7 @@
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
     </row>
-    <row r="97" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B97" s="8">
         <f t="shared" si="2"/>
         <v>89</v>
@@ -10842,7 +12484,7 @@
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
     </row>
-    <row r="98" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B98" s="8">
         <f t="shared" si="2"/>
         <v>90</v>
@@ -10861,7 +12503,7 @@
       <c r="K98" s="7"/>
       <c r="L98" s="7"/>
     </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B99" s="8">
         <f t="shared" si="2"/>
         <v>91</v>
@@ -10880,7 +12522,7 @@
       <c r="K99" s="7"/>
       <c r="L99" s="7"/>
     </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B100" s="8">
         <f t="shared" si="2"/>
         <v>92</v>
@@ -10899,7 +12541,7 @@
       <c r="K100" s="7"/>
       <c r="L100" s="7"/>
     </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B101" s="8">
         <f t="shared" si="2"/>
         <v>93</v>
@@ -10918,7 +12560,7 @@
       <c r="K101" s="7"/>
       <c r="L101" s="7"/>
     </row>
-    <row r="102" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B102" s="8">
         <f t="shared" si="2"/>
         <v>94</v>
@@ -10937,7 +12579,7 @@
       <c r="K102" s="7"/>
       <c r="L102" s="7"/>
     </row>
-    <row r="103" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H103" s="6">
         <f>SUM(H9:H102)</f>
         <v>9</v>
@@ -10963,22 +12605,23 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
           <x14:formula1>
             <xm:f>共通!$B$1:$B$3</xm:f>
           </x14:formula1>
           <xm:sqref>F9:F102</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000001000000}">
           <x14:formula1>
             <xm:f>共通!$C$1:$C$5</xm:f>
           </x14:formula1>
           <xm:sqref>G9:G102</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000002000000}">
           <x14:formula1>
             <xm:f>共通!$A$1:$A$6</xm:f>
           </x14:formula1>
@@ -10990,17 +12633,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -11010,8 +12653,14 @@
       <c r="C1" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -11021,8 +12670,14 @@
       <c r="C2" s="5">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -11032,8 +12687,11 @@
       <c r="C3" s="5">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -11041,7 +12699,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>85</v>
       </c>
@@ -11049,7 +12707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -11057,5 +12715,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Document/変身モノプロトタイプ仕様書01.xlsx
+++ b/Document/変身モノプロトタイプ仕様書01.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tk625\OneDrive\Desktop\git_yaruki\origin\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tk625\OneDrive\Desktop\git_yaruki02\origin\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{546E3EF7-7D9D-437A-BAFD-CCE016A74D5A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C70D6F29-E910-48C5-A3B9-EB805BF3A22C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="10973" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="大概要" sheetId="1" r:id="rId1"/>
     <sheet name="戦闘・イベント仕様" sheetId="3" r:id="rId2"/>
     <sheet name="アクション仕様" sheetId="6" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
+    <sheet name="アクションリスト" sheetId="7" r:id="rId4"/>
     <sheet name="必要項目リスト" sheetId="2" r:id="rId5"/>
     <sheet name="共通" sheetId="4" r:id="rId6"/>
   </sheets>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="224">
   <si>
     <t>■資料概要</t>
     <rPh sb="1" eb="3">
@@ -2292,16 +2292,6 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>魔法少女</t>
-    <rPh sb="0" eb="2">
-      <t>マホウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショウジョ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2623,6 +2613,174 @@
       <t>カイシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無気力_待機_座り</t>
+    <rPh sb="0" eb="3">
+      <t>ムキリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タイキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無気力_ダウン</t>
+    <rPh sb="0" eb="3">
+      <t>ムキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無気力_歩き_後ろ</t>
+    <rPh sb="0" eb="3">
+      <t>ムキリョク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アル</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無気力_歩き_前</t>
+    <rPh sb="0" eb="3">
+      <t>ムキリョク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アル</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファック_スライム_開始</t>
+    <rPh sb="10" eb="12">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファック_スライム_ループ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファック_スライム_終了</t>
+    <rPh sb="10" eb="12">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スライム絶頂発射</t>
+    <rPh sb="4" eb="6">
+      <t>ゼッチョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハッシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>挿入開始</t>
+    <rPh sb="0" eb="2">
+      <t>ソウニュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スーパーファック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無気力パートに移行したことを示す大ダウン</t>
+    <rPh sb="0" eb="3">
+      <t>ムキリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無気力_待機_起き上がり</t>
+    <rPh sb="0" eb="3">
+      <t>ムキリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タイキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無気力_ダメージくらい_小</t>
+    <rPh sb="0" eb="3">
+      <t>ムキリョク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無気力_ダメージくらい_大</t>
+    <rPh sb="12" eb="13">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファック開始攻撃</t>
+    <rPh sb="4" eb="6">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このアクションをヒットさせたらファック開始</t>
+    <rPh sb="19" eb="21">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵ヒロイン</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
   </si>
 </sst>
 </file>
@@ -2795,7 +2953,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2870,6 +3028,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10035,15 +10196,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAA9CDC-FB3F-4F48-85A9-86ADE8E141E9}">
-  <dimension ref="A2:O55"/>
+  <dimension ref="A2:O59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.19921875" customWidth="1"/>
+    <col min="2" max="2" width="21.1328125" customWidth="1"/>
     <col min="3" max="3" width="50.796875" customWidth="1"/>
     <col min="4" max="4" width="10.59765625" customWidth="1"/>
     <col min="5" max="5" width="24.19921875" customWidth="1"/>
@@ -10072,10 +10233,10 @@
     </row>
     <row r="4" spans="1:15" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>175</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -10083,7 +10244,7 @@
         <v>170</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>171</v>
@@ -10095,464 +10256,626 @@
         <v>173</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G5" s="23" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
+      <c r="A6" s="6">
+        <v>1</v>
+      </c>
       <c r="B6" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="E6" s="6"/>
+        <v>179</v>
+      </c>
+      <c r="E6" s="25"/>
       <c r="F6" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
+      <c r="A7" s="6">
+        <v>2</v>
+      </c>
       <c r="B7" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="E7" s="6"/>
+        <v>179</v>
+      </c>
+      <c r="E7" s="25"/>
       <c r="F7" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
+      <c r="A8" s="6">
+        <v>3</v>
+      </c>
       <c r="B8" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="E8" s="6"/>
+        <v>179</v>
+      </c>
+      <c r="E8" s="25"/>
       <c r="F8" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
+      <c r="A9" s="6">
+        <v>4</v>
+      </c>
       <c r="B9" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="E9" s="6"/>
+        <v>179</v>
+      </c>
+      <c r="E9" s="25"/>
       <c r="F9" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
+      <c r="A10" s="6">
+        <v>5</v>
+      </c>
       <c r="B10" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="E10" s="6"/>
+        <v>179</v>
+      </c>
+      <c r="E10" s="25"/>
       <c r="F10" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
+      <c r="A11" s="6">
+        <v>6</v>
+      </c>
       <c r="B11" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="E11" s="6"/>
+        <v>179</v>
+      </c>
+      <c r="E11" s="25"/>
       <c r="F11" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
+      <c r="A12" s="6">
+        <v>7</v>
+      </c>
       <c r="B12" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="24"/>
-      <c r="E12" s="6"/>
+      <c r="E12" s="25"/>
       <c r="F12" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
+      <c r="A13" s="6">
+        <v>8</v>
+      </c>
       <c r="B13" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="24"/>
-      <c r="E13" s="6"/>
+      <c r="E13" s="25"/>
       <c r="F13" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
+      <c r="A14" s="6">
+        <v>9</v>
+      </c>
       <c r="B14" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="24"/>
-      <c r="E14" s="6"/>
+      <c r="E14" s="25"/>
       <c r="F14" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
+      <c r="A15" s="6">
+        <v>10</v>
+      </c>
       <c r="B15" s="6" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="6"/>
+      <c r="D15" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="E15" s="25"/>
       <c r="F15" s="6" t="s">
         <v>185</v>
       </c>
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
+      <c r="A16" s="6">
+        <v>11</v>
+      </c>
       <c r="B16" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="24"/>
-      <c r="E16" s="6"/>
+      <c r="E16" s="25"/>
       <c r="F16" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
+      <c r="A17" s="6">
+        <v>12</v>
+      </c>
       <c r="B17" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>13</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="E18" s="25"/>
+      <c r="F18" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>14</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>198</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6" t="s">
-        <v>200</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="24"/>
-      <c r="E19" s="6" t="s">
-        <v>201</v>
-      </c>
+      <c r="E19" s="25"/>
       <c r="F19" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
+      <c r="A20" s="6">
+        <v>15</v>
+      </c>
       <c r="B20" s="6" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="24"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="E20" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>185</v>
+      </c>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
+    <row r="21" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>16</v>
+      </c>
       <c r="B21" s="6" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C21" s="6"/>
-      <c r="D21" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>185</v>
+      </c>
       <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
+      <c r="A22" s="6">
+        <v>17</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>201</v>
+      </c>
       <c r="C22" s="6"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="D22" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="E22" s="25"/>
+      <c r="F22" s="6" t="s">
+        <v>184</v>
+      </c>
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
+      <c r="A23" s="6">
+        <v>18</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>205</v>
+      </c>
       <c r="C23" s="6"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
+      <c r="D23" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="E23" s="25"/>
+      <c r="F23" s="6" t="s">
+        <v>185</v>
+      </c>
       <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
+      <c r="A24" s="6">
+        <v>19</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>208</v>
+      </c>
       <c r="C24" s="6"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="D24" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="E24" s="25"/>
+      <c r="F24" s="6" t="s">
+        <v>185</v>
+      </c>
       <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
+      <c r="A25" s="6">
+        <v>20</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>207</v>
+      </c>
       <c r="C25" s="6"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="D25" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="E25" s="25"/>
+      <c r="F25" s="6" t="s">
+        <v>185</v>
+      </c>
       <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="6">
+        <v>21</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>217</v>
+      </c>
       <c r="C26" s="6"/>
       <c r="D26" s="24"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="6" t="s">
+        <v>185</v>
+      </c>
       <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="6">
+        <v>22</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>218</v>
+      </c>
       <c r="C27" s="6"/>
       <c r="D27" s="24"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="6" t="s">
+        <v>185</v>
+      </c>
       <c r="G27" s="6"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
+      <c r="A28" s="6">
+        <v>23</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>206</v>
+      </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+      <c r="D28" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="E28" s="25"/>
+      <c r="F28" s="6" t="s">
+        <v>185</v>
+      </c>
       <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
+      <c r="A29" s="6">
+        <v>24</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="C29" s="6"/>
       <c r="D29" s="24"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="6" t="s">
+        <v>185</v>
+      </c>
       <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
+      <c r="A30" s="6">
+        <v>25</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>209</v>
+      </c>
       <c r="C30" s="6"/>
       <c r="D30" s="24"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
+      <c r="E30" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>185</v>
+      </c>
       <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
+      <c r="A31" s="6">
+        <v>26</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>210</v>
+      </c>
       <c r="C31" s="6"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
+      <c r="D31" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>184</v>
+      </c>
       <c r="G31" s="6"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
+      <c r="A32" s="6">
+        <v>27</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>211</v>
+      </c>
       <c r="C32" s="6"/>
       <c r="D32" s="24"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
+      <c r="E32" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>185</v>
+      </c>
       <c r="G32" s="6"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
+      <c r="A33" s="6">
+        <v>28</v>
+      </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="24"/>
-      <c r="E33" s="6"/>
+      <c r="E33" s="25"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
+      <c r="A34" s="6">
+        <v>29</v>
+      </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="24"/>
-      <c r="E34" s="6"/>
+      <c r="E34" s="25"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
+      <c r="A35" s="6">
+        <v>30</v>
+      </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="24"/>
-      <c r="E35" s="6"/>
+      <c r="E35" s="25"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
     </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>31</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>32</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>33</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+    </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="6">
+        <v>34</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B44" s="22" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="B40" s="22" t="s">
+      <c r="C44" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="G44" s="23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <v>1</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C40" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="E40" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="F40" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="G40" s="23" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6" t="s">
+      <c r="C45" s="6"/>
+      <c r="D45" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6" t="s">
+      <c r="E45" s="25"/>
+      <c r="F45" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="G45" s="6"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>2</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="E46" s="25"/>
+      <c r="F46" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="G46" s="6"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>3</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
       <c r="C47" s="6"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
+      <c r="D47" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="E47" s="25"/>
+      <c r="F47" s="6" t="s">
+        <v>184</v>
+      </c>
       <c r="G47" s="6"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
+    <row r="48" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <v>4</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>219</v>
+      </c>
       <c r="C48" s="6"/>
       <c r="D48" s="24"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
+      <c r="E48" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>184</v>
+      </c>
       <c r="G48" s="6"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -10560,7 +10883,7 @@
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="24"/>
-      <c r="E49" s="6"/>
+      <c r="E49" s="25"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
     </row>
@@ -10569,7 +10892,7 @@
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="24"/>
-      <c r="E50" s="6"/>
+      <c r="E50" s="25"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
     </row>
@@ -10578,7 +10901,7 @@
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="24"/>
-      <c r="E51" s="6"/>
+      <c r="E51" s="25"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
     </row>
@@ -10587,7 +10910,7 @@
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="24"/>
-      <c r="E52" s="6"/>
+      <c r="E52" s="25"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
     </row>
@@ -10596,7 +10919,7 @@
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="24"/>
-      <c r="E53" s="6"/>
+      <c r="E53" s="25"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
     </row>
@@ -10605,7 +10928,7 @@
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="24"/>
-      <c r="E54" s="6"/>
+      <c r="E54" s="25"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
     </row>
@@ -10614,27 +10937,64 @@
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="24"/>
-      <c r="E55" s="6"/>
+      <c r="E55" s="25"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5A79D347-A4CF-4C85-B1D3-6FAE9FEFE932}">
+          <x14:formula1>
+            <xm:f>共通!$D$1:$D$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>D6:D39 D45:D59</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{752DB307-FF5B-4D1F-B9BC-37A636BB93AA}">
           <x14:formula1>
             <xm:f>共通!E$1:E$2</xm:f>
           </x14:formula1>
-          <xm:sqref>F41:F55 F6:F35</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5A79D347-A4CF-4C85-B1D3-6FAE9FEFE932}">
-          <x14:formula1>
-            <xm:f>共通!$D$1:$D$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>D41:D55 D6:D35</xm:sqref>
+          <xm:sqref>F45:F59 F6:F39</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -12654,10 +13014,10 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -12671,10 +13031,10 @@
         <v>0.25</v>
       </c>
       <c r="D2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -12688,7 +13048,7 @@
         <v>0.5</v>
       </c>
       <c r="D3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">

--- a/Document/変身モノプロトタイプ仕様書01.xlsx
+++ b/Document/変身モノプロトタイプ仕様書01.xlsx
@@ -1,31 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tk625\OneDrive\Desktop\git_yaruki02\origin\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C70D6F29-E910-48C5-A3B9-EB805BF3A22C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8C049A88-45F0-4A29-89AA-08E3A8A96389}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="10973" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="10973" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="大概要" sheetId="1" r:id="rId1"/>
     <sheet name="戦闘・イベント仕様" sheetId="3" r:id="rId2"/>
-    <sheet name="アクション仕様" sheetId="6" r:id="rId3"/>
+    <sheet name="アクション個別仕様" sheetId="8" r:id="rId3"/>
     <sheet name="アクションリスト" sheetId="7" r:id="rId4"/>
     <sheet name="必要項目リスト" sheetId="2" r:id="rId5"/>
     <sheet name="共通" sheetId="4" r:id="rId6"/>
+    <sheet name="旧アクション仕様" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="257">
   <si>
     <t>■資料概要</t>
     <rPh sb="1" eb="3">
@@ -2012,22 +2013,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・味方キャラ：複数出現可能</t>
-    <rPh sb="1" eb="3">
-      <t>ミカタ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シュツゲン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・敵ヒロイン：常に一体のみ出現</t>
     <rPh sb="1" eb="2">
       <t>テキ</t>
@@ -2215,10 +2200,6 @@
     <rPh sb="5" eb="7">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アクションリストを作成すること</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2782,12 +2763,563 @@
   <si>
     <t>〇</t>
   </si>
+  <si>
+    <t>■アクション仕様</t>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各キャラの個別のアクション仕様について記載する。</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コベツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■敵ヒロインアクション</t>
+    <rPh sb="1" eb="2">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>待機　立ち・座り</t>
+    <rPh sb="0" eb="2">
+      <t>タイキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>スワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>歩き　前・後ろ</t>
+    <rPh sb="0" eb="1">
+      <t>アル</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▼コリジョンサイズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▼移動速度</t>
+    <rPh sb="1" eb="3">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>被ダメージ</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・一度に一定以上のダメージを受けた場合再生する。</t>
+    <rPh sb="1" eb="3">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→他のアクションを中断して再生する。</t>
+    <rPh sb="1" eb="2">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チュウダン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→キャラクターを軽く縦シェイクさせる。</t>
+    <rPh sb="8" eb="9">
+      <t>カル</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・再生時、ノックバックで後ろに下がる。</t>
+    <rPh sb="1" eb="3">
+      <t>サイセイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウシ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【ファックパートサイクルの詳細】</t>
+    <rPh sb="13" eb="15">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームの存在意義とも言えるパートなので、細部まで作りこむ。</t>
+    <rPh sb="4" eb="6">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イギ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サイブ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無気力パートにて味方モンスターが敵ヒロインに攻撃を加えると開始するファックパートの詳細な手順について記載。</t>
+    <rPh sb="0" eb="3">
+      <t>ムキリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ミカタ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・前方に蹴りを放つ攻撃</t>
+    <rPh sb="1" eb="3">
+      <t>ゼンポウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ヒットした相手を１キャラ分程度、後ろにノックバックさせる。</t>
+    <rPh sb="6" eb="8">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>テイド</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0～5F 足振り上げ</t>
+    <rPh sb="5" eb="6">
+      <t>アシ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6～15F 足振り切り　攻撃発生</t>
+    <rPh sb="6" eb="7">
+      <t>アシ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16～20F　足下げ　終了</t>
+    <rPh sb="7" eb="8">
+      <t>アシ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※30F＝1秒計算</t>
+    <rPh sb="6" eb="7">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▲格闘に定評のあるプリキュア大先輩のパワフルキックをイメージ</t>
+    <rPh sb="1" eb="3">
+      <t>カクトウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テイヒョウ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ダイセンパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→その場発生。トランス量なし。</t>
+    <rPh sb="3" eb="4">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無気力待機</t>
+    <rPh sb="0" eb="3">
+      <t>ムキリョク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スライムファック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特殊実装を除き、下記をファックシーンの基本サイクルのルールとしたい。</t>
+    <rPh sb="0" eb="2">
+      <t>トクシュ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ノゾ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・味方モンスター：複数出現可能</t>
+    <rPh sb="1" eb="3">
+      <t>ミカタ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※※※モンスター複数出現の遊びについてプレイサイクルを記載予定。目当てのモンスターにファックさせる仕組みを考案する。</t>
+    <rPh sb="8" eb="10">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アソ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>メア</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>シク</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>コウアン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本作では戦闘は直接操作を行わず、自軍キャラクターに指示を出して戦闘を観戦する形式を取る。</t>
+    <rPh sb="0" eb="2">
+      <t>ホンサク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>グン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カンセン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームに求めるものがオカズであることから、直接操作型の遊びにした場合にむしろその目的を妨げる可能性が大きいため。</t>
+    <rPh sb="4" eb="5">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>アソ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>サマタ</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>カノウセイ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作は最小限で、基本的に手をフリーにした状態でプレイできることを目標として定める。</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>サイショウゲン</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>サダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細はアクション仕様とアクションリストを参照。</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【ストラテジー型戦闘システム（AI戦闘）について】</t>
+    <rPh sb="7" eb="8">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【味方モンスターの複数出現ルール＆遊びについて】</t>
+    <rPh sb="1" eb="3">
+      <t>ミカタ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※敵ヒロインは快楽堕ちせず、あくまでも最後まで嫌悪感を抱いていてほしい。</t>
+    <rPh sb="1" eb="2">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイラク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ケンオカン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>イダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2843,8 +3375,43 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2923,6 +3490,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -2953,7 +3526,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3031,6 +3604,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4472,15 +5063,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>48</xdr:col>
+      <xdr:col>49</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>80367</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4533,15 +5124,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>52388</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>14287</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>14288</xdr:colOff>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>30956</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4594,15 +5185,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>226</xdr:row>
+      <xdr:row>287</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>239</xdr:row>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>300</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4655,15 +5246,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4679,7 +5270,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="195262" y="20888325"/>
+          <a:off x="380999" y="25984200"/>
           <a:ext cx="4486277" cy="2076451"/>
           <a:chOff x="209549" y="21945600"/>
           <a:chExt cx="4829177" cy="2190751"/>
@@ -4858,15 +5449,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>232</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>181</xdr:row>
+      <xdr:row>242</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4936,15 +5527,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>187</xdr:row>
+      <xdr:row>248</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:row>253</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5014,15 +5605,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>200</xdr:row>
+      <xdr:row>261</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>203</xdr:row>
+      <xdr:row>264</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5092,15 +5683,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>42863</xdr:colOff>
-      <xdr:row>181</xdr:row>
+      <xdr:row>242</xdr:row>
       <xdr:rowOff>136922</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>42863</xdr:colOff>
-      <xdr:row>184</xdr:row>
+      <xdr:row>245</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5147,15 +5738,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>186</xdr:row>
+      <xdr:row>247</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>166688</xdr:colOff>
-      <xdr:row>187</xdr:row>
+      <xdr:row>248</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5200,15 +5791,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>42863</xdr:colOff>
-      <xdr:row>187</xdr:row>
+      <xdr:row>248</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>42863</xdr:colOff>
-      <xdr:row>200</xdr:row>
+      <xdr:row>261</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5256,15 +5847,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>42863</xdr:colOff>
-      <xdr:row>203</xdr:row>
+      <xdr:row>264</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>42863</xdr:colOff>
-      <xdr:row>210</xdr:row>
+      <xdr:row>271</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5312,15 +5903,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:row>253</xdr:row>
       <xdr:rowOff>95252</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>176213</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>268</xdr:row>
       <xdr:rowOff>161930</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5367,15 +5958,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>221</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>223</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5445,15 +6036,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>42863</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>223</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>42863</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>225</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5501,15 +6092,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>80367</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5562,15 +6153,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5586,7 +6177,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3967163" y="8905875"/>
+          <a:off x="4152900" y="14001750"/>
           <a:ext cx="352425" cy="981075"/>
           <a:chOff x="3448050" y="7877175"/>
           <a:chExt cx="381000" cy="1047750"/>
@@ -5693,15 +6284,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5756,15 +6347,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5832,15 +6423,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5899,7 +6490,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>自軍キャラ</a:t>
+            <a:t>自軍キャラ（味方モンスター）</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
             <a:solidFill>
@@ -5913,15 +6504,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5976,15 +6567,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -6000,7 +6591,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2138363" y="14220825"/>
+          <a:off x="2324100" y="19316700"/>
           <a:ext cx="352425" cy="990600"/>
           <a:chOff x="3448050" y="7877175"/>
           <a:chExt cx="381000" cy="1047750"/>
@@ -6107,15 +6698,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>185736</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>14289</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>119061</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>14289</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6170,15 +6761,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6233,15 +6824,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6296,15 +6887,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>190498</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>180973</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6359,15 +6950,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>94462</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>111879</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>105953</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>63612</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6422,15 +7013,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>19065</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>117713</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>96856</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>28167</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6485,15 +7076,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>181591</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>30534</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>75201</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>69101</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6548,15 +7139,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>8737</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>54729</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>20228</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>6462</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6611,15 +7202,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>48</xdr:col>
+      <xdr:col>49</xdr:col>
       <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -6635,7 +7226,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="4677906">
-          <a:off x="8281987" y="22159912"/>
+          <a:off x="8467725" y="27255787"/>
           <a:ext cx="361950" cy="962025"/>
           <a:chOff x="3448050" y="7877175"/>
           <a:chExt cx="381000" cy="1047750"/>
@@ -6742,15 +7333,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
+      <xdr:col>46</xdr:col>
       <xdr:colOff>133351</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6805,15 +7396,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6864,15 +7455,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6943,15 +7534,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>47</xdr:col>
+      <xdr:col>48</xdr:col>
       <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>55</xdr:col>
+      <xdr:col>56</xdr:col>
       <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7027,15 +7618,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7111,15 +7702,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
+      <xdr:col>46</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7187,15 +7778,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>225</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>227</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7265,15 +7856,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>229</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>231</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7343,15 +7934,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>42863</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>227</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>42863</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>229</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7399,15 +7990,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>42863</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>231</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>232</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7454,15 +8045,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>233</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>181</xdr:row>
+      <xdr:row>242</xdr:row>
       <xdr:rowOff>93464</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -7478,7 +8069,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1114426" y="27917775"/>
+          <a:off x="1300163" y="37871400"/>
           <a:ext cx="2595562" cy="1484114"/>
           <a:chOff x="6000750" y="29660850"/>
           <a:chExt cx="4105275" cy="2309217"/>
@@ -7699,15 +8290,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>235</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>239</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7775,15 +8366,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>184</xdr:row>
+      <xdr:row>245</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>187</xdr:row>
+      <xdr:row>248</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7853,15 +8444,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>188</xdr:row>
+      <xdr:row>249</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>252</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7971,15 +8562,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>193</xdr:row>
+      <xdr:row>254</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>196</xdr:row>
+      <xdr:row>257</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8049,15 +8640,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>197</xdr:row>
+      <xdr:row>258</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>200</xdr:row>
+      <xdr:row>261</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8183,15 +8774,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>210</xdr:row>
+      <xdr:row>271</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>213</xdr:row>
+      <xdr:row>274</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8261,15 +8852,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>204</xdr:row>
+      <xdr:row>265</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>268</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8337,10 +8928,1059 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>52387</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="正方形/長方形 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF34AF96-D47D-4ECB-A3B5-2F0EB09E9D56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="376237" y="25622250"/>
+          <a:ext cx="2462213" cy="1423988"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①挿入アニメーション</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　・接触→即ファックループアニメではない。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　モンスターの挿入シーンを</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　ワンショットアニメで作成する。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>61913</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="正方形/長方形 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6ACEC97-96E3-4CAC-9D46-BFB3D4B06124}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3405188" y="25622250"/>
+          <a:ext cx="2105025" cy="1423988"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②ファックループアニメーション</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　・ピストン運動</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　（石野さん作成済みのアニメ部分）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>33334</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>4756</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="正方形/長方形 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CADFC5A9-2C56-4893-9872-3A6FD15273F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6162672" y="30718124"/>
+          <a:ext cx="2943222" cy="3643314"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>③発射アニメーション</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　・実用性を考慮すると最も大事だと考えている場面。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　大きく下記の２つの挙動に分かれる。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　①発射前の高速スパートアニメ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　→プレイヤーの右手にスパートの切っ掛けを</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　　与える重要な挙動。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　　（視覚的に発射タイミングがわかるように</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　　　ガイドできるのがベスト。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　　　速度を段階で分けて発射直前は</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　　　超高速に出来たらいいかも）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　②発射アニメーション</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　→プレイヤーが絶頂を迎えるタイミングとなる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　　最重要アニメーション。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　　あっさり終わらせず、長々と発射し続けるようにする。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　　（プレイヤーがまだ絶頂中に画面内では終わって</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　　次のシーケンスに移ってると大変寂しい気持ちに</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　　なるため、プレイヤーとシンクロしやすいよう</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　　１０数秒ほど長々と注ぎ込むようにしたい）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>上記①、②ともに挙動自体は同じ動作の繰り返しで</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>OK</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="二等辺三角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F12FB81F-E235-4FD0-A117-491510E0884F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2881314" y="26122312"/>
+          <a:ext cx="447675" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>128588</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="二等辺三角形 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{362D338A-2F4A-4A95-9201-155EE578F821}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5514976" y="26122312"/>
+          <a:ext cx="447675" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>133347</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>9522</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="正方形/長方形 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFD523D6-3DDD-4237-A94F-3646B5581364}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9420222" y="25622250"/>
+          <a:ext cx="2105025" cy="1423988"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>④事後</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>「出来ればやりたい」レベルの努力目標。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>行為後、倒れて色々噴き出してる敵ヒロインのアニメ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>（モンスター側は不要）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>100013</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="二等辺三角形 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8893734B-B3CB-4FD1-94DB-145B6FB9557E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="8939213" y="26122312"/>
+          <a:ext cx="447675" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>33338</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>52386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>147638</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1" descr="「蹴り」の画像検索結果">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9C2BBCD-7A27-4F94-A39C-33F749B4A658}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="404813" y="7629524"/>
+          <a:ext cx="2714625" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -8993,8 +10633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:U123"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" zoomScale="195" workbookViewId="0">
-      <selection activeCell="AA17" sqref="AA17"/>
+    <sheetView topLeftCell="A101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF136" sqref="AF136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -9400,15 +11040,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:AS226"/>
+  <dimension ref="A2:AG287"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z89" sqref="Z89"/>
+    <sheetView topLeftCell="A183" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C189" sqref="C189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>123</v>
       </c>
@@ -9425,18 +11065,19 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>151</v>
       </c>
@@ -9453,436 +11094,633 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B12" s="30" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="24" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="27" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B27" s="19"/>
+    </row>
+    <row r="28" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AG30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="AF22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C51" s="31" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C53" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="106" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
+        <v>143</v>
+      </c>
+      <c r="L106" t="s">
+        <v>139</v>
+      </c>
+      <c r="S106" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="108" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="116" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
+        <v>144</v>
+      </c>
+      <c r="L116" t="s">
+        <v>142</v>
+      </c>
+      <c r="S116" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="118" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="AA118" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="119" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="AA119" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="127" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="G127" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="130" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B130" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
+      <c r="H130" s="3"/>
+      <c r="I130" s="3"/>
+      <c r="J130" s="3"/>
+      <c r="K130" s="3"/>
+      <c r="L130" s="3"/>
+      <c r="M130" s="3"/>
+      <c r="N130" s="3"/>
+      <c r="O130" s="3"/>
+    </row>
+    <row r="131" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="133" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="134" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="136" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C136" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D136" s="4"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="4"/>
+      <c r="I136" s="4"/>
+      <c r="J136" s="4"/>
+      <c r="K136" s="4"/>
+    </row>
+    <row r="137" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C137" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="138" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C138" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="139" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C139" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="140" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C140" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="142" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C142" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="143" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C143" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AS43" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C75" t="s">
-        <v>143</v>
-      </c>
-      <c r="K75" t="s">
-        <v>139</v>
-      </c>
-      <c r="R75" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C85" t="s">
-        <v>144</v>
-      </c>
-      <c r="K85" t="s">
-        <v>142</v>
-      </c>
-      <c r="R85" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="Z87" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="Z88" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="F96" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
-      <c r="K99" s="3"/>
-      <c r="L99" s="3"/>
-      <c r="M99" s="3"/>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B105" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
-      <c r="H105" s="4"/>
-      <c r="I105" s="4"/>
-      <c r="J105" s="4"/>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B111" s="1" t="s">
+    <row r="144" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C144" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
+    <row r="146" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C146" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
+    <row r="147" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C147" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B116" t="s">
+    <row r="150" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C150" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
+    <row r="152" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C152" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D152" s="4"/>
+      <c r="E152" s="4"/>
+      <c r="F152" s="4"/>
+      <c r="G152" s="4"/>
+      <c r="H152" s="4"/>
+      <c r="I152" s="4"/>
+      <c r="J152" s="4"/>
+      <c r="K152" s="4"/>
+    </row>
+    <row r="153" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C153" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="154" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C154" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="156" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C156" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B121" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C121" s="4"/>
-      <c r="D121" s="4"/>
-      <c r="E121" s="4"/>
-      <c r="F121" s="4"/>
-      <c r="G121" s="4"/>
-      <c r="H121" s="4"/>
-      <c r="I121" s="4"/>
-      <c r="J121" s="4"/>
-    </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B122" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B123" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B125" s="1" t="s">
+    <row r="157" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C157" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B126" t="s">
+    <row r="158" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C158" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B127" t="s">
+    <row r="160" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AD160" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="129" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="AC129" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="143" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B143" t="s">
+    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C174" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B145" t="s">
+    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C176" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B146" t="s">
+    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C177" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B147" t="s">
+    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C178" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B148" t="s">
+    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C179" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B150" s="1" t="s">
+    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C181" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A154" s="2" t="s">
+    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C182" s="1"/>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C183" s="1"/>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C184" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C185" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C186" s="19" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C187" s="19" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C188" s="19" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C189" s="1"/>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C190" s="1"/>
+    </row>
+    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C191" s="1"/>
+    </row>
+    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C192" s="1"/>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C193" s="1"/>
+    </row>
+    <row r="194" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C194" s="1"/>
+    </row>
+    <row r="195" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C195" s="1"/>
+    </row>
+    <row r="196" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C196" s="1"/>
+    </row>
+    <row r="197" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C197" s="1"/>
+    </row>
+    <row r="198" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C198" s="1"/>
+    </row>
+    <row r="199" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C199" s="1"/>
+    </row>
+    <row r="200" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C200" s="1"/>
+    </row>
+    <row r="201" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C201" s="1"/>
+    </row>
+    <row r="202" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C202" s="1"/>
+    </row>
+    <row r="203" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C203" s="1"/>
+    </row>
+    <row r="204" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C204" s="1"/>
+    </row>
+    <row r="205" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C205" s="1"/>
+    </row>
+    <row r="206" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C206" s="1"/>
+    </row>
+    <row r="207" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C207" s="1"/>
+    </row>
+    <row r="208" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C208" s="1"/>
+    </row>
+    <row r="209" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C209" s="1"/>
+    </row>
+    <row r="210" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C210" s="1"/>
+    </row>
+    <row r="211" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C211" s="1"/>
+    </row>
+    <row r="212" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C212" s="1"/>
+    </row>
+    <row r="215" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B215" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B154" s="3"/>
-      <c r="C154" s="3"/>
-      <c r="D154" s="3"/>
-      <c r="E154" s="3"/>
-      <c r="F154" s="3"/>
-      <c r="G154" s="3"/>
-      <c r="H154" s="3"/>
-      <c r="I154" s="3"/>
-      <c r="J154" s="3"/>
-      <c r="K154" s="3"/>
-      <c r="L154" s="3"/>
-      <c r="M154" s="3"/>
-      <c r="N154" s="3"/>
-    </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A226" s="2" t="s">
+      <c r="C215" s="3"/>
+      <c r="D215" s="3"/>
+      <c r="E215" s="3"/>
+      <c r="F215" s="3"/>
+      <c r="G215" s="3"/>
+      <c r="H215" s="3"/>
+      <c r="I215" s="3"/>
+      <c r="J215" s="3"/>
+      <c r="K215" s="3"/>
+      <c r="L215" s="3"/>
+      <c r="M215" s="3"/>
+      <c r="N215" s="3"/>
+      <c r="O215" s="3"/>
+    </row>
+    <row r="287" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B287" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B226" s="3"/>
-      <c r="C226" s="3"/>
-      <c r="D226" s="3"/>
-      <c r="E226" s="3"/>
-      <c r="F226" s="3"/>
-      <c r="G226" s="3"/>
-      <c r="H226" s="3"/>
-      <c r="I226" s="3"/>
-      <c r="J226" s="3"/>
-      <c r="K226" s="3"/>
-      <c r="L226" s="3"/>
-      <c r="M226" s="3"/>
-      <c r="N226" s="3"/>
+      <c r="C287" s="3"/>
+      <c r="D287" s="3"/>
+      <c r="E287" s="3"/>
+      <c r="F287" s="3"/>
+      <c r="G287" s="3"/>
+      <c r="H287" s="3"/>
+      <c r="I287" s="3"/>
+      <c r="J287" s="3"/>
+      <c r="K287" s="3"/>
+      <c r="L287" s="3"/>
+      <c r="M287" s="3"/>
+      <c r="N287" s="3"/>
+      <c r="O287" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:AF112"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BBD4AB3-AF0E-4B05-A262-9A870646E4C5}">
+  <dimension ref="A2:AL90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="C2" s="2" t="s">
+        <v>222</v>
+      </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -9894,303 +11732,243 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="AF19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B85" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
-      <c r="K89" s="3"/>
-      <c r="L89" s="3"/>
-      <c r="M89" s="3"/>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
-      <c r="G112" s="3"/>
-      <c r="H112" s="3"/>
-      <c r="I112" s="3"/>
-      <c r="J112" s="3"/>
-      <c r="K112" s="3"/>
-      <c r="L112" s="3"/>
-      <c r="M112" s="3"/>
-      <c r="N112" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" ht="22.9" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C28" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="35" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="36" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="40" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C40" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="42" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="43" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="45" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="65" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C65" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="69" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="70" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="74" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="75" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="79" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C79" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="29"/>
+      <c r="I79" s="29"/>
+      <c r="J79" s="29"/>
+      <c r="K79" s="29"/>
+      <c r="L79" s="29"/>
+      <c r="M79" s="29"/>
+      <c r="N79" s="29"/>
+      <c r="O79" s="29"/>
+      <c r="P79" s="29"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C90" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="29"/>
+      <c r="H90" s="29"/>
+      <c r="I90" s="29"/>
+      <c r="J90" s="29"/>
+      <c r="K90" s="29"/>
+      <c r="L90" s="29"/>
+      <c r="M90" s="29"/>
+      <c r="N90" s="29"/>
+      <c r="O90" s="29"/>
+      <c r="P90" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10198,7 +11976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAA9CDC-FB3F-4F48-85A9-86ADE8E141E9}">
   <dimension ref="A2:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -10214,7 +11992,7 @@
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
@@ -10233,33 +12011,33 @@
     </row>
     <row r="4" spans="1:15" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="C5" s="22" t="s">
+      <c r="E5" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="F5" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="G5" s="23" t="s">
         <v>172</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -10267,15 +12045,15 @@
         <v>1</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G6" s="6"/>
     </row>
@@ -10284,15 +12062,15 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G7" s="6"/>
     </row>
@@ -10301,15 +12079,15 @@
         <v>3</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G8" s="6"/>
     </row>
@@ -10318,15 +12096,15 @@
         <v>4</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E9" s="25"/>
       <c r="F9" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G9" s="6"/>
     </row>
@@ -10335,15 +12113,15 @@
         <v>5</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E10" s="25"/>
       <c r="F10" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G10" s="6"/>
     </row>
@@ -10352,15 +12130,15 @@
         <v>6</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G11" s="6"/>
     </row>
@@ -10369,13 +12147,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="24"/>
       <c r="E12" s="25"/>
       <c r="F12" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G12" s="6"/>
     </row>
@@ -10384,13 +12162,13 @@
         <v>8</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="24"/>
       <c r="E13" s="25"/>
       <c r="F13" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G13" s="6"/>
     </row>
@@ -10399,13 +12177,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="24"/>
       <c r="E14" s="25"/>
       <c r="F14" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G14" s="6"/>
     </row>
@@ -10414,15 +12192,15 @@
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="24" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E15" s="25"/>
       <c r="F15" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G15" s="6"/>
     </row>
@@ -10431,13 +12209,13 @@
         <v>11</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="24"/>
       <c r="E16" s="25"/>
       <c r="F16" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G16" s="6"/>
     </row>
@@ -10446,13 +12224,13 @@
         <v>12</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="24"/>
       <c r="E17" s="25"/>
       <c r="F17" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G17" s="6"/>
     </row>
@@ -10461,15 +12239,15 @@
         <v>13</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E18" s="25"/>
       <c r="F18" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G18" s="6"/>
     </row>
@@ -10478,13 +12256,13 @@
         <v>14</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="24"/>
       <c r="E19" s="25"/>
       <c r="F19" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G19" s="6"/>
     </row>
@@ -10493,15 +12271,15 @@
         <v>15</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="24"/>
       <c r="E20" s="25" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G20" s="6"/>
     </row>
@@ -10510,15 +12288,15 @@
         <v>16</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="24"/>
       <c r="E21" s="25" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G21" s="6"/>
     </row>
@@ -10527,15 +12305,15 @@
         <v>17</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E22" s="25"/>
       <c r="F22" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G22" s="6"/>
     </row>
@@ -10544,15 +12322,15 @@
         <v>18</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E23" s="25"/>
       <c r="F23" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G23" s="6"/>
     </row>
@@ -10561,15 +12339,15 @@
         <v>19</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E24" s="25"/>
       <c r="F24" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G24" s="6"/>
     </row>
@@ -10578,15 +12356,15 @@
         <v>20</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E25" s="25"/>
       <c r="F25" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G25" s="6"/>
     </row>
@@ -10595,13 +12373,13 @@
         <v>21</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="24"/>
       <c r="E26" s="25"/>
       <c r="F26" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G26" s="6"/>
     </row>
@@ -10610,13 +12388,13 @@
         <v>22</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="24"/>
       <c r="E27" s="25"/>
       <c r="F27" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G27" s="6"/>
     </row>
@@ -10625,15 +12403,15 @@
         <v>23</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E28" s="25"/>
       <c r="F28" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G28" s="6"/>
     </row>
@@ -10642,13 +12420,13 @@
         <v>24</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="24"/>
       <c r="E29" s="25"/>
       <c r="F29" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G29" s="6"/>
     </row>
@@ -10657,15 +12435,15 @@
         <v>25</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="24"/>
       <c r="E30" s="25" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G30" s="6"/>
     </row>
@@ -10674,17 +12452,17 @@
         <v>26</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G31" s="6"/>
     </row>
@@ -10693,15 +12471,15 @@
         <v>27</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="24"/>
       <c r="E32" s="25" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G32" s="6"/>
     </row>
@@ -10784,30 +12562,30 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D44" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="B44" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="C44" s="22" t="s">
+      <c r="E44" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="F44" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="G44" s="23" t="s">
         <v>172</v>
-      </c>
-      <c r="E44" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="F44" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="G44" s="23" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -10815,15 +12593,15 @@
         <v>1</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E45" s="25"/>
       <c r="F45" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G45" s="6"/>
     </row>
@@ -10832,15 +12610,15 @@
         <v>2</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E46" s="25"/>
       <c r="F46" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G46" s="6"/>
     </row>
@@ -10849,15 +12627,15 @@
         <v>3</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E47" s="25"/>
       <c r="F47" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G47" s="6"/>
     </row>
@@ -10866,15 +12644,15 @@
         <v>4</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="24"/>
       <c r="E48" s="25" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G48" s="6"/>
     </row>
@@ -13014,10 +14792,10 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -13031,10 +14809,10 @@
         <v>0.25</v>
       </c>
       <c r="D2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -13048,7 +14826,7 @@
         <v>0.5</v>
       </c>
       <c r="D3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -13077,4 +14855,334 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.34998626667073579"/>
+  </sheetPr>
+  <dimension ref="A2:AF112"/>
+  <sheetViews>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="AB126" sqref="AB126"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B85" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+      <c r="M89" s="3"/>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3"/>
+      <c r="I112" s="3"/>
+      <c r="J112" s="3"/>
+      <c r="K112" s="3"/>
+      <c r="L112" s="3"/>
+      <c r="M112" s="3"/>
+      <c r="N112" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Document/変身モノプロトタイプ仕様書01.xlsx
+++ b/Document/変身モノプロトタイプ仕様書01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tk625\OneDrive\Desktop\git_yaruki02\origin\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8C049A88-45F0-4A29-89AA-08E3A8A96389}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2D42B282-8D03-4ED1-BE36-9A48058E49A0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="10973" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5985" windowHeight="690" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="大概要" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="298">
   <si>
     <t>■資料概要</t>
     <rPh sb="1" eb="3">
@@ -1923,63 +1923,6 @@
     </rPh>
     <rPh sb="55" eb="56">
       <t>アソ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　→体力ゲージなど、UIは使わない。</t>
-    <rPh sb="2" eb="4">
-      <t>タイリョク</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>◆戦闘パートにおける画面表示は背景の上に自軍キャラ、敵キャラのみが乗った状態にする。</t>
-    <rPh sb="1" eb="3">
-      <t>セントウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ハイケイ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>グン</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ノ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>◆HPの通知はヒットエフェクトの色で表現する。</t>
-    <rPh sb="4" eb="6">
-      <t>ツウチ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヒョウゲン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3251,19 +3194,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>詳細はアクション仕様とアクションリストを参照。</t>
-    <rPh sb="0" eb="2">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>【ストラテジー型戦闘システム（AI戦闘）について】</t>
     <rPh sb="7" eb="8">
       <t>ガタ</t>
@@ -3311,6 +3241,837 @@
     </rPh>
     <rPh sb="27" eb="28">
       <t>イダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダメージ（残HP）表現は顔グラフィックで表す。表情がきつくなっていく。</t>
+    <rPh sb="5" eb="6">
+      <t>ザン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■具体的な戦闘システム</t>
+    <rPh sb="1" eb="4">
+      <t>グタイテキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▼味方モンスター側</t>
+    <rPh sb="1" eb="3">
+      <t>ミカタ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【戦力ゲージ】</t>
+    <rPh sb="1" eb="3">
+      <t>センリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▼敵ヒロイン側</t>
+    <rPh sb="1" eb="2">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【行動ゲージ】</t>
+    <rPh sb="1" eb="3">
+      <t>コウドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【モンスターの召喚】</t>
+    <rPh sb="7" eb="9">
+      <t>ショウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【上記機能の操作】</t>
+    <rPh sb="1" eb="3">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクション個別の詳細はアクション仕様とアクションリストを参照。</t>
+    <rPh sb="5" eb="7">
+      <t>コベツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◆事前に登録したモンスターを任意のタイミングで場に呼び出すことができる。</t>
+    <rPh sb="1" eb="3">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・モンスターごとに割り当てられた召喚キーを押すことで召喚（α版では1種のみ）</t>
+    <rPh sb="9" eb="10">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショウカン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ショウカン</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>シュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・召喚するタイミングで後述の戦力ゲージを消費する。消費量はモンスターの種類によって異なる。</t>
+    <rPh sb="1" eb="3">
+      <t>ショウカン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウジュツ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センリョク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>ショウヒリョウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・同時に最大３匹まで召喚可能。</t>
+    <rPh sb="1" eb="3">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショウカン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　→同種のモンスターを複数体呼び出すことも可能。</t>
+    <rPh sb="2" eb="4">
+      <t>ドウシュ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>スウタイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◆自軍の体力代わりとなるゲージ。モンスターを呼び出すごとに消費される。</t>
+    <rPh sb="1" eb="2">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>グン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ガ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ショウヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・最大値を１００、最低値を０とする。</t>
+    <rPh sb="1" eb="4">
+      <t>サイダイチ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サイテイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ゲージの数値は、モンスターの召喚によってのみ変動する。</t>
+    <rPh sb="5" eb="7">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショウカン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヘンドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　→ゲージの回復や、ゲージへの直接攻撃はα版では想定しない。</t>
+    <rPh sb="6" eb="8">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ソウテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◆戦闘パートにおける画面表示は背景の上に自軍キャラ、敵キャラと自軍のモンスター管理情報のみが乗った状態にする。</t>
+    <rPh sb="1" eb="3">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>グン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>グン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　→UIの量は極力抑える。</t>
+    <rPh sb="5" eb="6">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キョクリョク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◆HPの通知はヒットエフェクトの色で表現する。敵味方共通。</t>
+    <rPh sb="4" eb="6">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>テキミカタ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【自軍の勝利条件】</t>
+    <rPh sb="1" eb="2">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>グン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　敵ヒロインの体力を0にし、無力化パートへ移行することで勝利が確定する。</t>
+    <rPh sb="1" eb="2">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ムリョクカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カクテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【自軍の敗北条件】</t>
+    <rPh sb="1" eb="2">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>グン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハイボク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　戦力ゲージ（後述）の減少により、モンスターが召喚できなくなった状態でモンスターが全て死亡すると敗北となる。</t>
+    <rPh sb="1" eb="3">
+      <t>センリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウジュツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ゲンショウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ショウカン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ハイボク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・モンスターは死亡することによって場から消滅する。</t>
+    <rPh sb="7" eb="9">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ショウメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◆自軍のモンスター１体ごとに異なる指示を出すことが出来る。</t>
+    <rPh sb="1" eb="2">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>グン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【AI切り替え・自軍モンスター】</t>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>グン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　●AIの種類について</t>
+    <rPh sb="5" eb="7">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　→敵との距離を保ち、攻撃の時だけ敵が射程距離に入るまで接近する。被ダメージ等倍</t>
+    <rPh sb="2" eb="3">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タモ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シャテイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>セッキン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>トウバイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　→常に敵との距離を詰め、攻撃を行う。被ダメージ2倍</t>
+    <rPh sb="2" eb="3">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　→攻撃を一切行わない。敵ヒロインにベタ付きするまで前進する。被ダメージ0.5倍</t>
+    <rPh sb="2" eb="4">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イッサイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヅ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ゼンシン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①通常タイプ：基本的な行動を行う。モンスターを死なせたくないときの基本形。</t>
+    <rPh sb="1" eb="3">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>キホンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③壁役タイプ：他のモンスターの攻撃を肩代わりするタンク役</t>
+    <rPh sb="1" eb="2">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カタガ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②特攻タイプ：ひたすら前進して攻撃する攻撃型。モンスターを死なせてでも敵を削りたいときに使う。</t>
+    <rPh sb="1" eb="3">
+      <t>トッコウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ゼンシン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>コウゲキガタ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ケズ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◆モンスター召喚</t>
+    <rPh sb="6" eb="8">
+      <t>ショウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→数字キー「１・２・３」にモンスターを割り当てる</t>
+    <rPh sb="1" eb="3">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◆AI切り替え</t>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キーボード操作：全て左手でキー操作を行えるように配慮。</t>
+    <rPh sb="5" eb="7">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ハイリョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「QWE」→１体目のAI切り替え。左から通常、特攻、壁役</t>
+    <rPh sb="7" eb="8">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>トッコウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ASD」→２体目。同上</t>
+    <rPh sb="7" eb="8">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ドウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ZXC」→３体目。同上</t>
+    <rPh sb="7" eb="8">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ドウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・内部的に徐々にゲージがたまっていき、溜まりきると攻撃を繰り出す。</t>
+    <rPh sb="1" eb="4">
+      <t>ナイブテキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョジョ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　→敵がレンジ内にいないときは攻撃しない。</t>
+    <rPh sb="2" eb="3">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※各種AIフローは後々作成。</t>
+    <rPh sb="1" eb="3">
+      <t>カクシュ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ノチノチ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3319,7 +4080,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3410,8 +4171,43 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3496,6 +4292,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -3526,7 +4328,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3621,6 +4423,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5065,13 +5885,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>227</xdr:row>
       <xdr:rowOff>80367</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5126,14 +5946,14 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>52388</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
       <xdr:colOff>14288</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>30956</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>13948</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5187,13 +6007,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>287</xdr:row>
+      <xdr:row>341</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>300</xdr:row>
+      <xdr:row>354</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5248,13 +6068,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5270,8 +6090,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="380999" y="25984200"/>
-          <a:ext cx="4486277" cy="2076451"/>
+          <a:off x="384751" y="34290000"/>
+          <a:ext cx="4531305" cy="2038351"/>
           <a:chOff x="209549" y="21945600"/>
           <a:chExt cx="4829177" cy="2190751"/>
         </a:xfrm>
@@ -5451,13 +6271,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>232</xdr:row>
+      <xdr:row>286</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>242</xdr:row>
+      <xdr:row>296</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5529,13 +6349,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>248</xdr:row>
+      <xdr:row>302</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>253</xdr:row>
+      <xdr:row>307</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5607,13 +6427,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>261</xdr:row>
+      <xdr:row>315</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>264</xdr:row>
+      <xdr:row>318</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5685,13 +6505,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>42863</xdr:colOff>
-      <xdr:row>242</xdr:row>
+      <xdr:row>296</xdr:row>
       <xdr:rowOff>136922</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>42863</xdr:colOff>
-      <xdr:row>245</xdr:row>
+      <xdr:row>299</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5740,13 +6560,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>247</xdr:row>
+      <xdr:row>301</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>166688</xdr:colOff>
-      <xdr:row>248</xdr:row>
+      <xdr:row>302</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5793,13 +6613,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>42863</xdr:colOff>
-      <xdr:row>248</xdr:row>
+      <xdr:row>302</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>42863</xdr:colOff>
-      <xdr:row>261</xdr:row>
+      <xdr:row>315</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5849,13 +6669,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>42863</xdr:colOff>
-      <xdr:row>264</xdr:row>
+      <xdr:row>318</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>42863</xdr:colOff>
-      <xdr:row>271</xdr:row>
+      <xdr:row>325</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5905,13 +6725,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>253</xdr:row>
+      <xdr:row>307</xdr:row>
       <xdr:rowOff>95252</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>176213</xdr:colOff>
-      <xdr:row>268</xdr:row>
+      <xdr:row>322</xdr:row>
       <xdr:rowOff>161930</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5960,13 +6780,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>221</xdr:row>
+      <xdr:row>275</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>223</xdr:row>
+      <xdr:row>277</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6038,13 +6858,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>42863</xdr:colOff>
-      <xdr:row>223</xdr:row>
+      <xdr:row>277</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>42863</xdr:colOff>
-      <xdr:row>225</xdr:row>
+      <xdr:row>279</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6094,13 +6914,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>80367</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6155,13 +6975,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -6177,8 +6997,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4152900" y="14001750"/>
-          <a:ext cx="352425" cy="981075"/>
+          <a:off x="4194175" y="22545675"/>
+          <a:ext cx="356177" cy="958850"/>
           <a:chOff x="3448050" y="7877175"/>
           <a:chExt cx="381000" cy="1047750"/>
         </a:xfrm>
@@ -6286,13 +7106,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6349,13 +7169,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6425,13 +7245,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6506,13 +7326,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6569,13 +7389,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -6591,8 +7411,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2324100" y="19316700"/>
-          <a:ext cx="352425" cy="990600"/>
+          <a:off x="2346614" y="27755850"/>
+          <a:ext cx="356177" cy="971550"/>
           <a:chOff x="3448050" y="7877175"/>
           <a:chExt cx="381000" cy="1047750"/>
         </a:xfrm>
@@ -6700,13 +7520,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>185736</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>14289</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>119061</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>14289</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6763,13 +7583,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6826,13 +7646,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6889,13 +7709,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>190498</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>180973</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6952,13 +7772,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>94462</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>111879</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>105953</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>63612</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7015,13 +7835,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>19065</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>117713</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>96856</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>28167</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7078,13 +7898,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>181591</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>30534</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>75201</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>69101</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7141,13 +7961,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>8737</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>54729</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>20228</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>6462</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7204,13 +8024,13 @@
     <xdr:from>
       <xdr:col>43</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>223</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
       <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>225</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -7226,8 +8046,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="4677906">
-          <a:off x="8467725" y="27255787"/>
-          <a:ext cx="361950" cy="962025"/>
+          <a:off x="8557201" y="35524209"/>
+          <a:ext cx="355600" cy="973282"/>
           <a:chOff x="3448050" y="7877175"/>
           <a:chExt cx="381000" cy="1047750"/>
         </a:xfrm>
@@ -7335,13 +8155,13 @@
     <xdr:from>
       <xdr:col>43</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>221</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
       <xdr:colOff>133351</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>224</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7398,13 +8218,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>227</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7457,13 +8277,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>224</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>227</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7536,13 +8356,13 @@
     <xdr:from>
       <xdr:col>48</xdr:col>
       <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>220</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>56</xdr:col>
       <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>223</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7620,13 +8440,13 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
       <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>215</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7704,13 +8524,13 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>228</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>231</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7780,13 +8600,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>225</xdr:row>
+      <xdr:row>279</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>227</xdr:row>
+      <xdr:row>281</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7858,13 +8678,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>229</xdr:row>
+      <xdr:row>283</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>231</xdr:row>
+      <xdr:row>285</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7936,13 +8756,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>42863</xdr:colOff>
-      <xdr:row>227</xdr:row>
+      <xdr:row>281</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>42863</xdr:colOff>
-      <xdr:row>229</xdr:row>
+      <xdr:row>283</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7992,13 +8812,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>42863</xdr:colOff>
-      <xdr:row>231</xdr:row>
+      <xdr:row>285</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>232</xdr:row>
+      <xdr:row>286</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8047,13 +8867,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>233</xdr:row>
+      <xdr:row>287</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>242</xdr:row>
+      <xdr:row>296</xdr:row>
       <xdr:rowOff>93464</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -8069,8 +8889,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1300163" y="37871400"/>
-          <a:ext cx="2595562" cy="1484114"/>
+          <a:off x="1311420" y="45945425"/>
+          <a:ext cx="2621828" cy="1455539"/>
           <a:chOff x="6000750" y="29660850"/>
           <a:chExt cx="4105275" cy="2309217"/>
         </a:xfrm>
@@ -8292,13 +9112,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>235</xdr:row>
+      <xdr:row>289</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>239</xdr:row>
+      <xdr:row>293</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8368,13 +9188,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>245</xdr:row>
+      <xdr:row>299</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>248</xdr:row>
+      <xdr:row>302</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8446,13 +9266,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>249</xdr:row>
+      <xdr:row>303</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>252</xdr:row>
+      <xdr:row>306</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8564,13 +9384,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>254</xdr:row>
+      <xdr:row>308</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>257</xdr:row>
+      <xdr:row>311</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8642,13 +9462,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>258</xdr:row>
+      <xdr:row>312</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>261</xdr:row>
+      <xdr:row>315</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8776,13 +9596,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>271</xdr:row>
+      <xdr:row>325</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>274</xdr:row>
+      <xdr:row>328</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8854,13 +9674,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>265</xdr:row>
+      <xdr:row>319</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>268</xdr:row>
+      <xdr:row>322</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8932,13 +9752,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>243</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>52387</xdr:colOff>
-      <xdr:row>198</xdr:row>
+      <xdr:row>252</xdr:row>
       <xdr:rowOff>4763</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9070,13 +9890,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>61913</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>243</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>198</xdr:row>
+      <xdr:row>252</xdr:row>
       <xdr:rowOff>4763</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9192,13 +10012,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>33334</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>243</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
       <xdr:colOff>4756</xdr:colOff>
-      <xdr:row>211</xdr:row>
+      <xdr:row>265</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9597,13 +10417,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>245</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>194</xdr:row>
+      <xdr:row>248</xdr:row>
       <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9657,13 +10477,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>245</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>128588</xdr:colOff>
-      <xdr:row>194</xdr:row>
+      <xdr:row>248</xdr:row>
       <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9717,13 +10537,13 @@
     <xdr:from>
       <xdr:col>51</xdr:col>
       <xdr:colOff>133347</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>243</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>63</xdr:col>
       <xdr:colOff>9522</xdr:colOff>
-      <xdr:row>198</xdr:row>
+      <xdr:row>252</xdr:row>
       <xdr:rowOff>4763</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9855,13 +10675,13 @@
     <xdr:from>
       <xdr:col>49</xdr:col>
       <xdr:colOff>100013</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>245</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
       <xdr:colOff>23813</xdr:colOff>
-      <xdr:row>194</xdr:row>
+      <xdr:row>248</xdr:row>
       <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11040,10 +11860,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:AG287"/>
+  <dimension ref="A2:AJ341"/>
   <sheetViews>
-    <sheetView topLeftCell="A183" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C189" sqref="C189"/>
+    <sheetView tabSelected="1" topLeftCell="C138" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AS155" sqref="AS155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -11079,7 +11899,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -11103,7 +11923,7 @@
     </row>
     <row r="10" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B10" s="26" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -11131,21 +11951,21 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B12" s="30" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B18" s="34" t="s">
         <v>133</v>
       </c>
       <c r="C18" s="3"/>
@@ -11156,13 +11976,13 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
+    <row r="21" spans="2:9" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B21" s="34" t="s">
         <v>51</v>
       </c>
       <c r="C21" s="3"/>
@@ -11172,26 +11992,26 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="19"/>
     </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
+    <row r="28" spans="2:9" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B28" s="34" t="s">
         <v>55</v>
       </c>
       <c r="C28" s="3"/>
@@ -11199,505 +12019,726 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="AG30" t="s">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="34" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="35" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="38" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AG38" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
+    <row r="40" spans="2:33" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B40" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
+    <row r="42" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
+    <row r="44" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
+    <row r="45" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
+    <row r="47" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
+    <row r="48" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
+    <row r="51" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
+    <row r="52" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C46" t="s">
+    <row r="54" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C59" s="31" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" ht="16.149999999999999" x14ac:dyDescent="0.25">
+      <c r="C61" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3"/>
+      <c r="S61" s="3"/>
+      <c r="T61" s="3"/>
+      <c r="U61" s="3"/>
+      <c r="V61" s="3"/>
+      <c r="W61" s="3"/>
+      <c r="X61" s="3"/>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="65" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="67" spans="3:11" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="D67" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="37"/>
+      <c r="K67" s="37"/>
+    </row>
+    <row r="69" spans="3:11" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="E69" s="35" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="71" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="E71" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="73" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="F73" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="74" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="F74" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="75" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="F75" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="76" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="F76" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="77" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="F77" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="84" spans="5:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="E84" s="35" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="86" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F86" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="87" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F87" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="88" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F88" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="89" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F89" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="94" spans="5:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="E94" s="35" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="96" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F96" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="97" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F97" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="98" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G98" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="99" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G99" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="101" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G101" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="102" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G102" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="104" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G104" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="105" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G105" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="108" spans="5:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="E108" s="35" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="110" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F110" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="111" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F111" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="112" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F112" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="114" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F114" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="115" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F115" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="116" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F116" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="117" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F117" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="122" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="124" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E124" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="125" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E125" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="126" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E126" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="128" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E128" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="131" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="132" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="133" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="136" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AJ136" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="150" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C150" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="151" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C151" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="153" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C153" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="154" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C154" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="160" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D160" t="s">
+        <v>143</v>
+      </c>
+      <c r="L160" t="s">
+        <v>139</v>
+      </c>
+      <c r="S160" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="162" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C162" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="170" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="D170" t="s">
+        <v>144</v>
+      </c>
+      <c r="L170" t="s">
+        <v>142</v>
+      </c>
+      <c r="S170" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="172" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AA172" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="173" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AA173" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="181" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G181" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="184" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B184" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C184" s="3"/>
+      <c r="D184" s="3"/>
+      <c r="E184" s="3"/>
+      <c r="F184" s="3"/>
+      <c r="G184" s="3"/>
+      <c r="H184" s="3"/>
+      <c r="I184" s="3"/>
+      <c r="J184" s="3"/>
+      <c r="K184" s="3"/>
+      <c r="L184" s="3"/>
+      <c r="M184" s="3"/>
+      <c r="N184" s="3"/>
+      <c r="O184" s="3"/>
+    </row>
+    <row r="185" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B185" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="187" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="188" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="190" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C190" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D190" s="4"/>
+      <c r="E190" s="4"/>
+      <c r="F190" s="4"/>
+      <c r="G190" s="4"/>
+      <c r="H190" s="4"/>
+      <c r="I190" s="4"/>
+      <c r="J190" s="4"/>
+      <c r="K190" s="4"/>
+    </row>
+    <row r="191" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C191" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="192" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C192" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="193" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C193" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="194" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C194" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="196" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C196" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
+    <row r="197" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C197" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="198" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C198" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C51" s="31" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C53" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
-      <c r="R53" s="3"/>
-      <c r="S53" s="3"/>
-      <c r="T53" s="3"/>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C55" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C96" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C97" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C99" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C100" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="106" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D106" t="s">
-        <v>143</v>
-      </c>
-      <c r="L106" t="s">
-        <v>139</v>
-      </c>
-      <c r="S106" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="108" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C108" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="116" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D116" t="s">
-        <v>144</v>
-      </c>
-      <c r="L116" t="s">
-        <v>142</v>
-      </c>
-      <c r="S116" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="118" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="AA118" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="119" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="AA119" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="127" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="G127" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="130" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B130" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
-      <c r="E130" s="3"/>
-      <c r="F130" s="3"/>
-      <c r="G130" s="3"/>
-      <c r="H130" s="3"/>
-      <c r="I130" s="3"/>
-      <c r="J130" s="3"/>
-      <c r="K130" s="3"/>
-      <c r="L130" s="3"/>
-      <c r="M130" s="3"/>
-      <c r="N130" s="3"/>
-      <c r="O130" s="3"/>
-    </row>
-    <row r="131" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B131" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="133" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B133" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="134" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B134" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="136" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C136" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D136" s="4"/>
-      <c r="E136" s="4"/>
-      <c r="F136" s="4"/>
-      <c r="G136" s="4"/>
-      <c r="H136" s="4"/>
-      <c r="I136" s="4"/>
-      <c r="J136" s="4"/>
-      <c r="K136" s="4"/>
-    </row>
-    <row r="137" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C137" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="138" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C138" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="139" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C139" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="140" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C140" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="142" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C142" s="1" t="s">
+    <row r="200" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C200" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="201" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C201" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="143" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C143" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="144" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C144" t="s">
+    <row r="204" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C204" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="146" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C146" t="s">
+    <row r="206" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C206" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D206" s="4"/>
+      <c r="E206" s="4"/>
+      <c r="F206" s="4"/>
+      <c r="G206" s="4"/>
+      <c r="H206" s="4"/>
+      <c r="I206" s="4"/>
+      <c r="J206" s="4"/>
+      <c r="K206" s="4"/>
+    </row>
+    <row r="207" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C207" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="208" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C208" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="210" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C210" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="147" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C147" t="s">
+    <row r="211" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C211" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="150" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C150" t="s">
+    <row r="212" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C212" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="152" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C152" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D152" s="4"/>
-      <c r="E152" s="4"/>
-      <c r="F152" s="4"/>
-      <c r="G152" s="4"/>
-      <c r="H152" s="4"/>
-      <c r="I152" s="4"/>
-      <c r="J152" s="4"/>
-      <c r="K152" s="4"/>
-    </row>
-    <row r="153" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C153" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="154" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C154" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="156" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C156" s="1" t="s">
+    <row r="214" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AD214" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="157" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C157" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="158" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C158" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="160" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="AD160" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C174" t="s">
+    <row r="228" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C228" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C176" t="s">
+    <row r="230" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C230" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C177" t="s">
+    <row r="231" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C231" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C178" t="s">
+    <row r="232" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C232" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C179" t="s">
+    <row r="233" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C233" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C181" s="1" t="s">
+    <row r="235" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C235" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C182" s="1"/>
-    </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C183" s="1"/>
-    </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C184" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C185" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C186" s="19" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C187" s="19" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C188" s="19" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C189" s="1"/>
-    </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C190" s="1"/>
-    </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C191" s="1"/>
-    </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C192" s="1"/>
-    </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C193" s="1"/>
-    </row>
-    <row r="194" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C194" s="1"/>
-    </row>
-    <row r="195" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C195" s="1"/>
-    </row>
-    <row r="196" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C196" s="1"/>
-    </row>
-    <row r="197" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C197" s="1"/>
-    </row>
-    <row r="198" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C198" s="1"/>
-    </row>
-    <row r="199" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C199" s="1"/>
-    </row>
-    <row r="200" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C200" s="1"/>
-    </row>
-    <row r="201" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C201" s="1"/>
-    </row>
-    <row r="202" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C202" s="1"/>
-    </row>
-    <row r="203" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C203" s="1"/>
-    </row>
-    <row r="204" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C204" s="1"/>
-    </row>
-    <row r="205" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C205" s="1"/>
-    </row>
-    <row r="206" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C206" s="1"/>
-    </row>
-    <row r="207" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C207" s="1"/>
-    </row>
-    <row r="208" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C208" s="1"/>
-    </row>
-    <row r="209" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C209" s="1"/>
-    </row>
-    <row r="210" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C210" s="1"/>
-    </row>
-    <row r="211" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C211" s="1"/>
-    </row>
-    <row r="212" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C212" s="1"/>
-    </row>
-    <row r="215" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B215" s="2" t="s">
+    <row r="236" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C236" s="1"/>
+    </row>
+    <row r="237" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C237" s="1"/>
+    </row>
+    <row r="238" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C238" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="D238" s="4"/>
+      <c r="E238" s="4"/>
+      <c r="F238" s="4"/>
+      <c r="G238" s="4"/>
+      <c r="H238" s="4"/>
+      <c r="I238" s="4"/>
+      <c r="J238" s="4"/>
+      <c r="K238" s="4"/>
+      <c r="L238" s="4"/>
+      <c r="M238" s="4"/>
+    </row>
+    <row r="239" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C239" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="240" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C240" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="241" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C241" s="19" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="242" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C242" s="19" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="243" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C243" s="1"/>
+    </row>
+    <row r="244" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C244" s="1"/>
+    </row>
+    <row r="245" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C245" s="1"/>
+    </row>
+    <row r="246" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C246" s="1"/>
+    </row>
+    <row r="247" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C247" s="1"/>
+    </row>
+    <row r="248" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C248" s="1"/>
+    </row>
+    <row r="249" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C249" s="1"/>
+    </row>
+    <row r="250" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C250" s="1"/>
+    </row>
+    <row r="251" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C251" s="1"/>
+    </row>
+    <row r="252" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C252" s="1"/>
+    </row>
+    <row r="253" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C253" s="1"/>
+    </row>
+    <row r="254" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C254" s="1"/>
+    </row>
+    <row r="255" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C255" s="1"/>
+    </row>
+    <row r="256" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C256" s="1"/>
+    </row>
+    <row r="257" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C257" s="1"/>
+    </row>
+    <row r="258" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C258" s="1"/>
+    </row>
+    <row r="259" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C259" s="1"/>
+    </row>
+    <row r="260" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C260" s="1"/>
+    </row>
+    <row r="261" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C261" s="1"/>
+    </row>
+    <row r="262" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C262" s="1"/>
+    </row>
+    <row r="263" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C263" s="1"/>
+    </row>
+    <row r="264" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C264" s="1"/>
+    </row>
+    <row r="265" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C265" s="1"/>
+    </row>
+    <row r="266" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C266" s="1"/>
+    </row>
+    <row r="269" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B269" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C215" s="3"/>
-      <c r="D215" s="3"/>
-      <c r="E215" s="3"/>
-      <c r="F215" s="3"/>
-      <c r="G215" s="3"/>
-      <c r="H215" s="3"/>
-      <c r="I215" s="3"/>
-      <c r="J215" s="3"/>
-      <c r="K215" s="3"/>
-      <c r="L215" s="3"/>
-      <c r="M215" s="3"/>
-      <c r="N215" s="3"/>
-      <c r="O215" s="3"/>
-    </row>
-    <row r="287" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B287" s="2" t="s">
+      <c r="C269" s="3"/>
+      <c r="D269" s="3"/>
+      <c r="E269" s="3"/>
+      <c r="F269" s="3"/>
+      <c r="G269" s="3"/>
+      <c r="H269" s="3"/>
+      <c r="I269" s="3"/>
+      <c r="J269" s="3"/>
+      <c r="K269" s="3"/>
+      <c r="L269" s="3"/>
+      <c r="M269" s="3"/>
+      <c r="N269" s="3"/>
+      <c r="O269" s="3"/>
+    </row>
+    <row r="341" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B341" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C287" s="3"/>
-      <c r="D287" s="3"/>
-      <c r="E287" s="3"/>
-      <c r="F287" s="3"/>
-      <c r="G287" s="3"/>
-      <c r="H287" s="3"/>
-      <c r="I287" s="3"/>
-      <c r="J287" s="3"/>
-      <c r="K287" s="3"/>
-      <c r="L287" s="3"/>
-      <c r="M287" s="3"/>
-      <c r="N287" s="3"/>
-      <c r="O287" s="3"/>
+      <c r="C341" s="3"/>
+      <c r="D341" s="3"/>
+      <c r="E341" s="3"/>
+      <c r="F341" s="3"/>
+      <c r="G341" s="3"/>
+      <c r="H341" s="3"/>
+      <c r="I341" s="3"/>
+      <c r="J341" s="3"/>
+      <c r="K341" s="3"/>
+      <c r="L341" s="3"/>
+      <c r="M341" s="3"/>
+      <c r="N341" s="3"/>
+      <c r="O341" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -11711,16 +12752,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BBD4AB3-AF0E-4B05-A262-9A870646E4C5}">
   <dimension ref="A2:AL90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="J100" sqref="J100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C2" s="2" t="s">
-        <v>222</v>
-      </c>
+    <row r="2" spans="1:38" ht="16.149999999999999" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -11736,13 +12779,13 @@
       <c r="P2" s="3"/>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>223</v>
+      <c r="A3" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:38" ht="22.9" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="27"/>
@@ -11784,7 +12827,7 @@
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -11802,12 +12845,12 @@
     </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C28" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -11825,17 +12868,17 @@
     </row>
     <row r="35" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C40" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -11853,47 +12896,47 @@
     </row>
     <row r="42" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="43" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="65" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C65" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -11911,27 +12954,27 @@
     </row>
     <row r="69" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="70" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="74" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="75" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="79" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C79" s="28" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D79" s="29"/>
       <c r="E79" s="29"/>
@@ -11949,7 +12992,7 @@
     </row>
     <row r="90" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C90" s="28" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D90" s="29"/>
       <c r="E90" s="29"/>
@@ -11968,7 +13011,8 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11976,7 +13020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAA9CDC-FB3F-4F48-85A9-86ADE8E141E9}">
   <dimension ref="A2:O59"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -11992,7 +13036,7 @@
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
@@ -12011,33 +13055,33 @@
     </row>
     <row r="4" spans="1:15" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="F5" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="G5" s="23" t="s">
         <v>169</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -12045,15 +13089,15 @@
         <v>1</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="24" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G6" s="6"/>
     </row>
@@ -12062,15 +13106,15 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="24" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G7" s="6"/>
     </row>
@@ -12079,15 +13123,15 @@
         <v>3</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="24" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G8" s="6"/>
     </row>
@@ -12096,15 +13140,15 @@
         <v>4</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="24" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E9" s="25"/>
       <c r="F9" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G9" s="6"/>
     </row>
@@ -12113,15 +13157,15 @@
         <v>5</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="24" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E10" s="25"/>
       <c r="F10" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G10" s="6"/>
     </row>
@@ -12130,15 +13174,15 @@
         <v>6</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="24" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G11" s="6"/>
     </row>
@@ -12147,13 +13191,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="24"/>
       <c r="E12" s="25"/>
       <c r="F12" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G12" s="6"/>
     </row>
@@ -12162,13 +13206,13 @@
         <v>8</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="24"/>
       <c r="E13" s="25"/>
       <c r="F13" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G13" s="6"/>
     </row>
@@ -12177,13 +13221,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="24"/>
       <c r="E14" s="25"/>
       <c r="F14" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G14" s="6"/>
     </row>
@@ -12192,15 +13236,15 @@
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="24" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E15" s="25"/>
       <c r="F15" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G15" s="6"/>
     </row>
@@ -12209,13 +13253,13 @@
         <v>11</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="24"/>
       <c r="E16" s="25"/>
       <c r="F16" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G16" s="6"/>
     </row>
@@ -12224,13 +13268,13 @@
         <v>12</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="24"/>
       <c r="E17" s="25"/>
       <c r="F17" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G17" s="6"/>
     </row>
@@ -12239,15 +13283,15 @@
         <v>13</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="24" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E18" s="25"/>
       <c r="F18" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G18" s="6"/>
     </row>
@@ -12256,13 +13300,13 @@
         <v>14</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="24"/>
       <c r="E19" s="25"/>
       <c r="F19" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G19" s="6"/>
     </row>
@@ -12271,15 +13315,15 @@
         <v>15</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="24"/>
       <c r="E20" s="25" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G20" s="6"/>
     </row>
@@ -12288,15 +13332,15 @@
         <v>16</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="24"/>
       <c r="E21" s="25" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G21" s="6"/>
     </row>
@@ -12305,15 +13349,15 @@
         <v>17</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="24" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E22" s="25"/>
       <c r="F22" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G22" s="6"/>
     </row>
@@ -12322,15 +13366,15 @@
         <v>18</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="24" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E23" s="25"/>
       <c r="F23" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G23" s="6"/>
     </row>
@@ -12339,15 +13383,15 @@
         <v>19</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="24" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E24" s="25"/>
       <c r="F24" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G24" s="6"/>
     </row>
@@ -12356,15 +13400,15 @@
         <v>20</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="24" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E25" s="25"/>
       <c r="F25" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G25" s="6"/>
     </row>
@@ -12373,13 +13417,13 @@
         <v>21</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="24"/>
       <c r="E26" s="25"/>
       <c r="F26" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G26" s="6"/>
     </row>
@@ -12388,13 +13432,13 @@
         <v>22</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="24"/>
       <c r="E27" s="25"/>
       <c r="F27" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G27" s="6"/>
     </row>
@@ -12403,15 +13447,15 @@
         <v>23</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="24" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E28" s="25"/>
       <c r="F28" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G28" s="6"/>
     </row>
@@ -12420,13 +13464,13 @@
         <v>24</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="24"/>
       <c r="E29" s="25"/>
       <c r="F29" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G29" s="6"/>
     </row>
@@ -12435,15 +13479,15 @@
         <v>25</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="24"/>
       <c r="E30" s="25" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G30" s="6"/>
     </row>
@@ -12452,17 +13496,17 @@
         <v>26</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="24" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G31" s="6"/>
     </row>
@@ -12471,15 +13515,15 @@
         <v>27</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="24"/>
       <c r="E32" s="25" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G32" s="6"/>
     </row>
@@ -12562,30 +13606,30 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="E44" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="F44" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="G44" s="23" t="s">
         <v>169</v>
-      </c>
-      <c r="D44" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="E44" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="F44" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="G44" s="23" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -12593,15 +13637,15 @@
         <v>1</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="24" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E45" s="25"/>
       <c r="F45" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G45" s="6"/>
     </row>
@@ -12610,15 +13654,15 @@
         <v>2</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="24" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E46" s="25"/>
       <c r="F46" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G46" s="6"/>
     </row>
@@ -12627,15 +13671,15 @@
         <v>3</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="24" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E47" s="25"/>
       <c r="F47" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G47" s="6"/>
     </row>
@@ -12644,15 +13688,15 @@
         <v>4</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="24"/>
       <c r="E48" s="25" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G48" s="6"/>
     </row>
@@ -14792,10 +15836,10 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1" t="s">
         <v>179</v>
-      </c>
-      <c r="E1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -14809,10 +15853,10 @@
         <v>0.25</v>
       </c>
       <c r="D2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" t="s">
         <v>180</v>
-      </c>
-      <c r="E2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -14826,7 +15870,7 @@
         <v>0.5</v>
       </c>
       <c r="D3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">

--- a/Document/変身モノプロトタイプ仕様書01.xlsx
+++ b/Document/変身モノプロトタイプ仕様書01.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tk625\OneDrive\Desktop\git_yaruki02\origin\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2D42B282-8D03-4ED1-BE36-9A48058E49A0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="10_ncr:8100000_{2D42B282-8D03-4ED1-BE36-9A48058E49A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{B3F5BC83-1FE0-4BB7-A8AD-E9261FAB39FF}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="5985" windowHeight="690" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3971,63 +3971,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「QWE」→１体目のAI切り替え。左から通常、特攻、壁役</t>
-    <rPh sb="7" eb="8">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ツウジョウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>トッコウ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>カベ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ヤク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「ASD」→２体目。同上</t>
-    <rPh sb="7" eb="8">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ドウジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「ZXC」→３体目。同上</t>
-    <rPh sb="7" eb="8">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ドウジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・内部的に徐々にゲージがたまっていき、溜まりきると攻撃を繰り出す。</t>
     <rPh sb="1" eb="4">
       <t>ナイブテキ</t>
@@ -4072,6 +4015,69 @@
     </rPh>
     <rPh sb="11" eb="13">
       <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「W」→２体目。同上</t>
+    <rPh sb="5" eb="6">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ドウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「E」→３体目。同上</t>
+    <rPh sb="5" eb="6">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ドウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「Q」→１体目のAI切り替え。押すごとに通常、特攻、壁役と切り替わる。</t>
+    <rPh sb="5" eb="6">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>トッコウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>カ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6090,8 +6096,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="384751" y="34290000"/>
-          <a:ext cx="4531305" cy="2038351"/>
+          <a:off x="382531" y="35189213"/>
+          <a:ext cx="4504661" cy="2091638"/>
           <a:chOff x="209549" y="21945600"/>
           <a:chExt cx="4829177" cy="2190751"/>
         </a:xfrm>
@@ -6997,8 +7003,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4194175" y="22545675"/>
-          <a:ext cx="356177" cy="958850"/>
+          <a:off x="4169752" y="23111847"/>
+          <a:ext cx="353957" cy="989933"/>
           <a:chOff x="3448050" y="7877175"/>
           <a:chExt cx="381000" cy="1047750"/>
         </a:xfrm>
@@ -7411,8 +7417,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2346614" y="27755850"/>
-          <a:ext cx="356177" cy="971550"/>
+          <a:off x="2333292" y="28468560"/>
+          <a:ext cx="353957" cy="998193"/>
           <a:chOff x="3448050" y="7877175"/>
           <a:chExt cx="381000" cy="1047750"/>
         </a:xfrm>
@@ -8046,8 +8052,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="4677906">
-          <a:off x="8557201" y="35524209"/>
-          <a:ext cx="355600" cy="973282"/>
+          <a:off x="8501694" y="36471159"/>
+          <a:ext cx="364481" cy="966621"/>
           <a:chOff x="3448050" y="7877175"/>
           <a:chExt cx="381000" cy="1047750"/>
         </a:xfrm>
@@ -8889,8 +8895,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1311420" y="45945425"/>
-          <a:ext cx="2621828" cy="1455539"/>
+          <a:off x="1304759" y="47168799"/>
+          <a:ext cx="2606286" cy="1495504"/>
           <a:chOff x="6000750" y="29660850"/>
           <a:chExt cx="4105275" cy="2309217"/>
         </a:xfrm>
@@ -11862,8 +11868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:AJ341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C138" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AS155" sqref="AS155"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="143" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F116" sqref="F116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -12302,17 +12308,17 @@
     </row>
     <row r="115" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F115" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="116" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F116" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="117" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F117" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="122" spans="4:6" x14ac:dyDescent="0.25">
@@ -12327,17 +12333,17 @@
     </row>
     <row r="125" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E125" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="126" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E126" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="128" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E128" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="131" spans="2:36" x14ac:dyDescent="0.25">

--- a/Document/変身モノプロトタイプ仕様書01.xlsx
+++ b/Document/変身モノプロトタイプ仕様書01.xlsx
@@ -1,32 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tk625\OneDrive\Desktop\git_yaruki02\origin\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="10_ncr:8100000_{2D42B282-8D03-4ED1-BE36-9A48058E49A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{B3F5BC83-1FE0-4BB7-A8AD-E9261FAB39FF}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="10_ncr:8100000_{2D42B282-8D03-4ED1-BE36-9A48058E49A0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{5077BF81-1F48-486C-BBE0-1F9E93A30643}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5985" windowHeight="690" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5985" windowHeight="690" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="大概要" sheetId="1" r:id="rId1"/>
     <sheet name="戦闘・イベント仕様" sheetId="3" r:id="rId2"/>
     <sheet name="アクション個別仕様" sheetId="8" r:id="rId3"/>
     <sheet name="アクションリスト" sheetId="7" r:id="rId4"/>
-    <sheet name="必要項目リスト" sheetId="2" r:id="rId5"/>
-    <sheet name="共通" sheetId="4" r:id="rId6"/>
-    <sheet name="旧アクション仕様" sheetId="6" r:id="rId7"/>
+    <sheet name="開発用語" sheetId="10" r:id="rId5"/>
+    <sheet name="必要項目リスト" sheetId="2" r:id="rId6"/>
+    <sheet name="共通" sheetId="4" r:id="rId7"/>
+    <sheet name="旧アクション仕様" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="321">
   <si>
     <t>■資料概要</t>
     <rPh sb="1" eb="3">
@@ -4078,6 +4079,398 @@
     </rPh>
     <rPh sb="31" eb="32">
       <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発用語集</t>
+    <rPh sb="0" eb="2">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨウゴ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・画面左半分では戦闘シーケンスと同様の2Dグラフィック状態でイベントを表示する。</t>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハンブン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・画面右半分ではイベントCGを表示する。左側の動きを反映したカットインのように扱う。</t>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハンブン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒダリガワ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>アツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【ファックシーンにおける右左画面内アニメーション挙動について】</t>
+    <rPh sb="12" eb="13">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ガメンナイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キョドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左画面では2Dキャラによるアニメーションを行うが、その際の右画面挙動について解説する。</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>キョドウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カイセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左画面イベント</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右画面イベント</t>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・右画面イベントにおいては左画面イベントのファックに対応したイラストが表示されるが、イラストそのもののアニメーションは行わない。</t>
+    <rPh sb="1" eb="2">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　但し、左画面イベントに進捗があるごとに対応した差分イラストに差し替える。</t>
+    <rPh sb="1" eb="2">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シンチョク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サブン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・右画面イベントにおいて、アニメーションを行わない代わりに画像の上下やブラーをかけるなどエフェクトを再生することで臨場感を強化する。</t>
+    <rPh sb="1" eb="2">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジョウゲ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>サイセイ</t>
+    </rPh>
+    <rPh sb="57" eb="60">
+      <t>リンジョウカン</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>キョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクションシーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファックシーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自軍と敵ヒロインとの戦闘シーンを指す</t>
+    <rPh sb="0" eb="1">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>グン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無気力パート</t>
+    <rPh sb="0" eb="3">
+      <t>ムキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無気力パート～ファックパートの一連のエロシーンを指す</t>
+    <rPh sb="0" eb="3">
+      <t>ムキリョク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イチレン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵ヒロインのHPが０になった後のダウン状態を指す</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左画面にて行われる2Dキャラファックイベントを指す</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右画面におけるイラスト画面ファックイベントの挙動全般を指す</t>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キョドウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ゼンパン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>味方AI</t>
+    <rPh sb="0" eb="2">
+      <t>ミカタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>味方のAI設定を指す。数に従って１、２、３、とナンバリングする。</t>
+    <rPh sb="0" eb="2">
+      <t>ミカタ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>シタガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→右画面イベントの差分必要数は、左画面イベントの内容によって異なるので、別途リストにて指定する。</t>
+    <rPh sb="1" eb="2">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サブン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ヒツヨウスウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ベット</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バトルステージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクションシーンを行う場そのものを指す</t>
+    <rPh sb="9" eb="10">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>サ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5928,8 +6321,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5600700" y="21945600"/>
-          <a:ext cx="4105275" cy="2309217"/>
+          <a:off x="5386388" y="34942463"/>
+          <a:ext cx="3819525" cy="2185392"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6013,13 +6406,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>341</xdr:row>
+      <xdr:row>375</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>354</xdr:row>
+      <xdr:row>388</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6096,8 +6489,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="382531" y="35189213"/>
-          <a:ext cx="4504661" cy="2091638"/>
+          <a:off x="380999" y="34942463"/>
+          <a:ext cx="4486277" cy="2076451"/>
           <a:chOff x="209549" y="21945600"/>
           <a:chExt cx="4829177" cy="2190751"/>
         </a:xfrm>
@@ -6277,13 +6670,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>286</xdr:row>
+      <xdr:row>320</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>296</xdr:row>
+      <xdr:row>330</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6355,13 +6748,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>302</xdr:row>
+      <xdr:row>336</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>307</xdr:row>
+      <xdr:row>341</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6433,13 +6826,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>315</xdr:row>
+      <xdr:row>349</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>318</xdr:row>
+      <xdr:row>352</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6511,13 +6904,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>42863</xdr:colOff>
-      <xdr:row>296</xdr:row>
+      <xdr:row>330</xdr:row>
       <xdr:rowOff>136922</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>42863</xdr:colOff>
-      <xdr:row>299</xdr:row>
+      <xdr:row>333</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6566,13 +6959,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>301</xdr:row>
+      <xdr:row>335</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>166688</xdr:colOff>
-      <xdr:row>302</xdr:row>
+      <xdr:row>336</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6619,13 +7012,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>42863</xdr:colOff>
-      <xdr:row>302</xdr:row>
+      <xdr:row>336</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>42863</xdr:colOff>
-      <xdr:row>315</xdr:row>
+      <xdr:row>349</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6675,13 +7068,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>42863</xdr:colOff>
-      <xdr:row>318</xdr:row>
+      <xdr:row>352</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>42863</xdr:colOff>
-      <xdr:row>325</xdr:row>
+      <xdr:row>359</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6731,13 +7124,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>307</xdr:row>
+      <xdr:row>341</xdr:row>
       <xdr:rowOff>95252</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>176213</xdr:colOff>
-      <xdr:row>322</xdr:row>
+      <xdr:row>356</xdr:row>
       <xdr:rowOff>161930</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6786,13 +7179,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>275</xdr:row>
+      <xdr:row>309</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>277</xdr:row>
+      <xdr:row>311</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6864,13 +7257,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>42863</xdr:colOff>
-      <xdr:row>277</xdr:row>
+      <xdr:row>311</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>42863</xdr:colOff>
-      <xdr:row>279</xdr:row>
+      <xdr:row>313</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7003,8 +7396,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4169752" y="23111847"/>
-          <a:ext cx="353957" cy="989933"/>
+          <a:off x="4152900" y="22960013"/>
+          <a:ext cx="352425" cy="981075"/>
           <a:chOff x="3448050" y="7877175"/>
           <a:chExt cx="381000" cy="1047750"/>
         </a:xfrm>
@@ -7417,8 +7810,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2333292" y="28468560"/>
-          <a:ext cx="353957" cy="998193"/>
+          <a:off x="2324100" y="28274963"/>
+          <a:ext cx="352425" cy="990600"/>
           <a:chOff x="3448050" y="7877175"/>
           <a:chExt cx="381000" cy="1047750"/>
         </a:xfrm>
@@ -8052,8 +8445,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="4677906">
-          <a:off x="8501694" y="36471159"/>
-          <a:ext cx="364481" cy="966621"/>
+          <a:off x="8467725" y="36214050"/>
+          <a:ext cx="361950" cy="962025"/>
           <a:chOff x="3448050" y="7877175"/>
           <a:chExt cx="381000" cy="1047750"/>
         </a:xfrm>
@@ -8259,8 +8652,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5600700" y="21955124"/>
-          <a:ext cx="2085975" cy="2314575"/>
+          <a:off x="5386388" y="34951987"/>
+          <a:ext cx="1943100" cy="2190750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8606,13 +8999,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>279</xdr:row>
+      <xdr:row>313</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>281</xdr:row>
+      <xdr:row>315</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8684,13 +9077,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>283</xdr:row>
+      <xdr:row>317</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>285</xdr:row>
+      <xdr:row>319</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8762,13 +9155,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>42863</xdr:colOff>
-      <xdr:row>281</xdr:row>
+      <xdr:row>315</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>42863</xdr:colOff>
-      <xdr:row>283</xdr:row>
+      <xdr:row>317</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8818,13 +9211,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>42863</xdr:colOff>
-      <xdr:row>285</xdr:row>
+      <xdr:row>319</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>286</xdr:row>
+      <xdr:row>320</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8873,13 +9266,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>287</xdr:row>
+      <xdr:row>321</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>296</xdr:row>
+      <xdr:row>330</xdr:row>
       <xdr:rowOff>93464</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -8895,8 +9288,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1304759" y="47168799"/>
-          <a:ext cx="2606286" cy="1495504"/>
+          <a:off x="1300163" y="52335113"/>
+          <a:ext cx="2595562" cy="1484114"/>
           <a:chOff x="6000750" y="29660850"/>
           <a:chExt cx="4105275" cy="2309217"/>
         </a:xfrm>
@@ -9118,13 +9511,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>289</xdr:row>
+      <xdr:row>323</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>293</xdr:row>
+      <xdr:row>327</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9194,13 +9587,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>299</xdr:row>
+      <xdr:row>333</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>302</xdr:row>
+      <xdr:row>336</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9272,13 +9665,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>303</xdr:row>
+      <xdr:row>337</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>306</xdr:row>
+      <xdr:row>340</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9390,13 +9783,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>308</xdr:row>
+      <xdr:row>342</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>311</xdr:row>
+      <xdr:row>345</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9468,13 +9861,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>312</xdr:row>
+      <xdr:row>346</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>315</xdr:row>
+      <xdr:row>349</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9602,13 +9995,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>325</xdr:row>
+      <xdr:row>359</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>328</xdr:row>
+      <xdr:row>362</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9680,13 +10073,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>319</xdr:row>
+      <xdr:row>353</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>322</xdr:row>
+      <xdr:row>356</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9758,13 +10151,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>243</xdr:row>
+      <xdr:row>277</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>52387</xdr:colOff>
-      <xdr:row>252</xdr:row>
+      <xdr:row>286</xdr:row>
       <xdr:rowOff>4763</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9896,13 +10289,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>61913</xdr:colOff>
-      <xdr:row>243</xdr:row>
+      <xdr:row>277</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>252</xdr:row>
+      <xdr:row>286</xdr:row>
       <xdr:rowOff>4763</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10018,13 +10411,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>33334</xdr:colOff>
-      <xdr:row>243</xdr:row>
+      <xdr:row>277</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
       <xdr:colOff>4756</xdr:colOff>
-      <xdr:row>265</xdr:row>
+      <xdr:row>299</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10423,13 +10816,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>245</xdr:row>
+      <xdr:row>279</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>248</xdr:row>
+      <xdr:row>282</xdr:row>
       <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10483,13 +10876,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>245</xdr:row>
+      <xdr:row>279</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>128588</xdr:colOff>
-      <xdr:row>248</xdr:row>
+      <xdr:row>282</xdr:row>
       <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10543,13 +10936,13 @@
     <xdr:from>
       <xdr:col>51</xdr:col>
       <xdr:colOff>133347</xdr:colOff>
-      <xdr:row>243</xdr:row>
+      <xdr:row>277</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>63</xdr:col>
       <xdr:colOff>9522</xdr:colOff>
-      <xdr:row>252</xdr:row>
+      <xdr:row>286</xdr:row>
       <xdr:rowOff>4763</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10681,13 +11074,13 @@
     <xdr:from>
       <xdr:col>49</xdr:col>
       <xdr:colOff>100013</xdr:colOff>
-      <xdr:row>245</xdr:row>
+      <xdr:row>279</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
       <xdr:colOff>23813</xdr:colOff>
-      <xdr:row>248</xdr:row>
+      <xdr:row>282</xdr:row>
       <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10735,6 +11128,359 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>128588</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="19" name="グループ化 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF85C7F7-C7D9-4C94-AB2F-A525999433F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="390526" y="39495414"/>
+          <a:ext cx="3824287" cy="2200274"/>
+          <a:chOff x="557213" y="40314563"/>
+          <a:chExt cx="3824287" cy="2200274"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="73" name="図 72" descr="「背景 イラスト」の画像検索結果">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D43BB1CF-5B25-4E4A-9DEF-6298315FFE33}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="557213" y="40314563"/>
+            <a:ext cx="3819525" cy="2185392"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="74" name="グループ化 73">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C557EF94-55B2-4D76-8CFC-FD6D97448BA6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm rot="4677906">
+            <a:off x="1209675" y="41538525"/>
+            <a:ext cx="361950" cy="962025"/>
+            <a:chOff x="3448050" y="7877175"/>
+            <a:chExt cx="381000" cy="1047750"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="75" name="円/楕円 46">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3408849B-CCBD-4761-9BCA-CC9B0E72C50F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3505200" y="7877175"/>
+              <a:ext cx="276225" cy="276225"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="76" name="二等辺三角形 75">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13551EBA-91BC-4AAF-8299-3620E98FED05}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3448050" y="8143875"/>
+              <a:ext cx="381000" cy="781050"/>
+            </a:xfrm>
+            <a:prstGeom prst="triangle">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="77" name="スマイル 76">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F246C47-F905-4EEB-8280-F89BE67AFB16}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="738189" y="41400413"/>
+            <a:ext cx="681037" cy="647700"/>
+          </a:xfrm>
+          <a:prstGeom prst="smileyFace">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="78" name="図 77" descr="「ガードポジション」の画像検索結果">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E93CF04-D51E-444C-AB28-55E1629C74D8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect r="22780" b="12371"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2438400" y="40324087"/>
+            <a:ext cx="1943100" cy="2190750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="79" name="角丸四角形 50">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD3DDBE5-EFB7-405E-B9D8-DC04B2323726}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1223963" y="41962388"/>
+            <a:ext cx="2286000" cy="514350"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+              <a:alpha val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>あーっと！ここはどうにか体勢を入れ替えて起き上がりたい！</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -11866,10 +12612,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:AJ341"/>
+  <dimension ref="A2:AJ375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="143" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F116" sqref="F116"/>
+    <sheetView topLeftCell="A236" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C263" sqref="C263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -12567,76 +13313,60 @@
         <v>161</v>
       </c>
     </row>
-    <row r="228" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C228" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="230" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C230" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="231" spans="3:13" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="231" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C231" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="232" spans="3:13" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="232" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C232" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="233" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C233" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="235" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C235" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="236" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C236" s="1"/>
     </row>
-    <row r="237" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C237" s="1"/>
     </row>
-    <row r="238" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C238" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="D238" s="4"/>
-      <c r="E238" s="4"/>
-      <c r="F238" s="4"/>
-      <c r="G238" s="4"/>
-      <c r="H238" s="4"/>
-      <c r="I238" s="4"/>
-      <c r="J238" s="4"/>
-      <c r="K238" s="4"/>
-      <c r="L238" s="4"/>
-      <c r="M238" s="4"/>
-    </row>
-    <row r="239" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C239" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="240" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C240" s="19" t="s">
-        <v>244</v>
-      </c>
+    <row r="238" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C238" s="1"/>
+    </row>
+    <row r="239" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C239" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="240" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C240" s="1"/>
     </row>
     <row r="241" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C241" s="19" t="s">
-        <v>232</v>
+      <c r="C241" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="242" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C242" s="19" t="s">
-        <v>252</v>
-      </c>
+      <c r="C242" s="1"/>
     </row>
     <row r="243" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C243" s="1"/>
@@ -12680,71 +13410,201 @@
     <row r="256" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C256" s="1"/>
     </row>
-    <row r="257" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C257" s="1"/>
     </row>
-    <row r="258" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C258" s="1"/>
-    </row>
-    <row r="259" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C259" s="1"/>
-    </row>
-    <row r="260" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C260" s="1"/>
-    </row>
-    <row r="261" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C261" s="1"/>
-    </row>
-    <row r="262" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C262" s="1"/>
-    </row>
-    <row r="263" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C263" s="1"/>
-    </row>
-    <row r="264" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C264" s="1"/>
-    </row>
-    <row r="265" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C265" s="1"/>
-    </row>
-    <row r="266" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C266" s="1"/>
-    </row>
-    <row r="269" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B269" s="2" t="s">
+    <row r="258" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C258" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="259" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C259" s="19" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="260" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C260" s="19"/>
+    </row>
+    <row r="261" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C261" s="19" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="262" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C262" s="19" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="263" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C263" s="19"/>
+    </row>
+    <row r="264" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C264" s="19"/>
+    </row>
+    <row r="265" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C265" s="19"/>
+    </row>
+    <row r="266" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C266" s="19"/>
+    </row>
+    <row r="267" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C267" s="19"/>
+    </row>
+    <row r="268" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C268" s="19"/>
+    </row>
+    <row r="269" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C269" s="19"/>
+    </row>
+    <row r="270" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C270" s="19"/>
+    </row>
+    <row r="271" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C271" s="1"/>
+    </row>
+    <row r="272" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C272" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="D272" s="4"/>
+      <c r="E272" s="4"/>
+      <c r="F272" s="4"/>
+      <c r="G272" s="4"/>
+      <c r="H272" s="4"/>
+      <c r="I272" s="4"/>
+      <c r="J272" s="4"/>
+      <c r="K272" s="4"/>
+      <c r="L272" s="4"/>
+      <c r="M272" s="4"/>
+    </row>
+    <row r="273" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C273" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="274" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C274" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="275" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C275" s="19" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="276" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C276" s="19" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="277" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C277" s="1"/>
+    </row>
+    <row r="278" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C278" s="1"/>
+    </row>
+    <row r="279" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C279" s="1"/>
+    </row>
+    <row r="280" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C280" s="1"/>
+    </row>
+    <row r="281" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C281" s="1"/>
+    </row>
+    <row r="282" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C282" s="1"/>
+    </row>
+    <row r="283" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C283" s="1"/>
+    </row>
+    <row r="284" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C284" s="1"/>
+    </row>
+    <row r="285" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C285" s="1"/>
+    </row>
+    <row r="286" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C286" s="1"/>
+    </row>
+    <row r="287" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C287" s="1"/>
+    </row>
+    <row r="288" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C288" s="1"/>
+    </row>
+    <row r="289" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C289" s="1"/>
+    </row>
+    <row r="290" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C290" s="1"/>
+    </row>
+    <row r="291" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C291" s="1"/>
+    </row>
+    <row r="292" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C292" s="1"/>
+    </row>
+    <row r="293" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C293" s="1"/>
+    </row>
+    <row r="294" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C294" s="1"/>
+    </row>
+    <row r="295" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C295" s="1"/>
+    </row>
+    <row r="296" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C296" s="1"/>
+    </row>
+    <row r="297" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C297" s="1"/>
+    </row>
+    <row r="298" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C298" s="1"/>
+    </row>
+    <row r="299" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C299" s="1"/>
+    </row>
+    <row r="300" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C300" s="1"/>
+    </row>
+    <row r="303" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B303" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C269" s="3"/>
-      <c r="D269" s="3"/>
-      <c r="E269" s="3"/>
-      <c r="F269" s="3"/>
-      <c r="G269" s="3"/>
-      <c r="H269" s="3"/>
-      <c r="I269" s="3"/>
-      <c r="J269" s="3"/>
-      <c r="K269" s="3"/>
-      <c r="L269" s="3"/>
-      <c r="M269" s="3"/>
-      <c r="N269" s="3"/>
-      <c r="O269" s="3"/>
-    </row>
-    <row r="341" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B341" s="2" t="s">
+      <c r="C303" s="3"/>
+      <c r="D303" s="3"/>
+      <c r="E303" s="3"/>
+      <c r="F303" s="3"/>
+      <c r="G303" s="3"/>
+      <c r="H303" s="3"/>
+      <c r="I303" s="3"/>
+      <c r="J303" s="3"/>
+      <c r="K303" s="3"/>
+      <c r="L303" s="3"/>
+      <c r="M303" s="3"/>
+      <c r="N303" s="3"/>
+      <c r="O303" s="3"/>
+    </row>
+    <row r="375" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B375" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C341" s="3"/>
-      <c r="D341" s="3"/>
-      <c r="E341" s="3"/>
-      <c r="F341" s="3"/>
-      <c r="G341" s="3"/>
-      <c r="H341" s="3"/>
-      <c r="I341" s="3"/>
-      <c r="J341" s="3"/>
-      <c r="K341" s="3"/>
-      <c r="L341" s="3"/>
-      <c r="M341" s="3"/>
-      <c r="N341" s="3"/>
-      <c r="O341" s="3"/>
+      <c r="C375" s="3"/>
+      <c r="D375" s="3"/>
+      <c r="E375" s="3"/>
+      <c r="F375" s="3"/>
+      <c r="G375" s="3"/>
+      <c r="H375" s="3"/>
+      <c r="I375" s="3"/>
+      <c r="J375" s="3"/>
+      <c r="K375" s="3"/>
+      <c r="L375" s="3"/>
+      <c r="M375" s="3"/>
+      <c r="N375" s="3"/>
+      <c r="O375" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -12758,7 +13618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BBD4AB3-AF0E-4B05-A262-9A870646E4C5}">
   <dimension ref="A2:AL90"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="J100" sqref="J100"/>
     </sheetView>
   </sheetViews>
@@ -13026,7 +13886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAA9CDC-FB3F-4F48-85A9-86ADE8E141E9}">
   <dimension ref="A2:O59"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -13831,6 +14691,111 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9357344-5AF0-498C-B2ED-B28F78FD005F}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.53125" customWidth="1"/>
+    <col min="3" max="3" width="70.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:L103"/>
   <sheetViews>
@@ -15821,7 +16786,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -15907,7 +16872,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="1" tint="0.34998626667073579"/>
